--- a/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9626310369308592</v>
+        <v>1.000677722001156</v>
       </c>
       <c r="D2">
-        <v>0.9886668653317213</v>
+        <v>1.018952697495664</v>
       </c>
       <c r="E2">
-        <v>0.9717025505326101</v>
+        <v>1.011227355439773</v>
       </c>
       <c r="F2">
-        <v>0.9373878623774127</v>
+        <v>1.014098755413571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030769576117298</v>
+        <v>1.046134924016225</v>
       </c>
       <c r="J2">
-        <v>0.9859899374366492</v>
+        <v>1.022838181398836</v>
       </c>
       <c r="K2">
-        <v>1.00028637980606</v>
+        <v>1.030154157729524</v>
       </c>
       <c r="L2">
-        <v>0.9835707165988693</v>
+        <v>1.02253246032787</v>
       </c>
       <c r="M2">
-        <v>0.9497943589845799</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.025365105305355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9741197046967054</v>
+        <v>1.010828291341019</v>
       </c>
       <c r="D3">
-        <v>0.9975400573709011</v>
+        <v>1.026812243694995</v>
       </c>
       <c r="E3">
-        <v>0.9816447563085319</v>
+        <v>1.020415090838764</v>
       </c>
       <c r="F3">
-        <v>0.9521367267359822</v>
+        <v>1.024134705595031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034760932073159</v>
+        <v>1.049631201467729</v>
       </c>
       <c r="J3">
-        <v>0.9953416490766156</v>
+        <v>1.031028056574975</v>
       </c>
       <c r="K3">
-        <v>1.008204510688724</v>
+        <v>1.037113176496083</v>
       </c>
       <c r="L3">
-        <v>0.9925180111125878</v>
+        <v>1.030793254038157</v>
       </c>
       <c r="M3">
-        <v>0.9634210127105038</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.034467817555972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9811833483245908</v>
+        <v>1.017134032507357</v>
       </c>
       <c r="D4">
-        <v>1.002998958544201</v>
+        <v>1.031696649448541</v>
       </c>
       <c r="E4">
-        <v>0.9877593571912343</v>
+        <v>1.026125271206508</v>
       </c>
       <c r="F4">
-        <v>0.9611880062170053</v>
+        <v>1.030376208943292</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037195021052741</v>
+        <v>1.051785393031311</v>
       </c>
       <c r="J4">
-        <v>1.001080948628347</v>
+        <v>1.036109375882573</v>
       </c>
       <c r="K4">
-        <v>1.01306132303485</v>
+        <v>1.041427001918678</v>
       </c>
       <c r="L4">
-        <v>0.9980077960741711</v>
+        <v>1.035918289527394</v>
       </c>
       <c r="M4">
-        <v>0.9717785839467528</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.040121338044372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9840725915156856</v>
+        <v>1.01972691476834</v>
       </c>
       <c r="D5">
-        <v>1.005232356364963</v>
+        <v>1.033705356218659</v>
       </c>
       <c r="E5">
-        <v>0.9902606757668951</v>
+        <v>1.028473778375739</v>
       </c>
       <c r="F5">
-        <v>0.964887236458749</v>
+        <v>1.032944267602733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03818575241667</v>
+        <v>1.052666828469895</v>
       </c>
       <c r="J5">
-        <v>1.003425946718123</v>
+        <v>1.038197163020077</v>
       </c>
       <c r="K5">
-        <v>1.015045012812038</v>
+        <v>1.043198477161134</v>
       </c>
       <c r="L5">
-        <v>1.000250493367595</v>
+        <v>1.038023980034749</v>
       </c>
       <c r="M5">
-        <v>0.9751929860047728</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.042445648536785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9845532168572377</v>
+        <v>1.020158994730128</v>
       </c>
       <c r="D6">
-        <v>1.005603906852584</v>
+        <v>1.034040099471753</v>
       </c>
       <c r="E6">
-        <v>0.9906767809865954</v>
+        <v>1.028865163106261</v>
       </c>
       <c r="F6">
-        <v>0.9655024521337245</v>
+        <v>1.033372302360512</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038350270176514</v>
+        <v>1.052813452766548</v>
       </c>
       <c r="J6">
-        <v>1.00381588585945</v>
+        <v>1.038544975865061</v>
       </c>
       <c r="K6">
-        <v>1.015374825721242</v>
+        <v>1.043493535973619</v>
       </c>
       <c r="L6">
-        <v>1.000623399680374</v>
+        <v>1.038374772312868</v>
       </c>
       <c r="M6">
-        <v>0.9757607521484258</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.042832948872024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9812222600595656</v>
+        <v>1.017168900964849</v>
       </c>
       <c r="D7">
-        <v>1.003029035653499</v>
+        <v>1.031723661220378</v>
       </c>
       <c r="E7">
-        <v>0.9877930435948024</v>
+        <v>1.026156851445866</v>
       </c>
       <c r="F7">
-        <v>0.9612378374439015</v>
+        <v>1.03041073737027</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03720838355773</v>
+        <v>1.05179726375304</v>
       </c>
       <c r="J7">
-        <v>1.001112540757652</v>
+        <v>1.03613745847546</v>
       </c>
       <c r="K7">
-        <v>1.013088050615052</v>
+        <v>1.041450833739857</v>
       </c>
       <c r="L7">
-        <v>0.9980380114385742</v>
+        <v>1.035946613155835</v>
       </c>
       <c r="M7">
-        <v>0.9718245836818195</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.040152596427398</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9665958218229636</v>
+        <v>1.004165531342373</v>
       </c>
       <c r="D8">
-        <v>0.9917281491470212</v>
+        <v>1.021652770265779</v>
       </c>
       <c r="E8">
-        <v>0.975133154110868</v>
+        <v>1.014383714692898</v>
       </c>
       <c r="F8">
-        <v>0.942482067176491</v>
+        <v>1.017545646451974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032151212267571</v>
+        <v>1.047339988217166</v>
       </c>
       <c r="J8">
-        <v>0.989219467582792</v>
+        <v>1.025653586582975</v>
       </c>
       <c r="K8">
-        <v>1.003021346131679</v>
+        <v>1.032547216183108</v>
       </c>
       <c r="L8">
-        <v>0.9866608417472876</v>
+        <v>1.025372311518998</v>
       </c>
       <c r="M8">
-        <v>0.9545019562034169</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.028493082123102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9375207092744419</v>
+        <v>0.9789922610375779</v>
       </c>
       <c r="D9">
-        <v>0.9693075607549898</v>
+        <v>1.002182557596146</v>
       </c>
       <c r="E9">
-        <v>0.9499922893967362</v>
+        <v>0.9916191758914779</v>
       </c>
       <c r="F9">
-        <v>0.9049895117027649</v>
+        <v>0.992702624612178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021933945508186</v>
+        <v>1.038568234663884</v>
       </c>
       <c r="J9">
-        <v>0.965490555173467</v>
+        <v>1.005309308174359</v>
       </c>
       <c r="K9">
-        <v>0.982919036116091</v>
+        <v>1.015240323298188</v>
       </c>
       <c r="L9">
-        <v>0.963952394368968</v>
+        <v>1.004849705524379</v>
       </c>
       <c r="M9">
-        <v>0.919838312084708</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.005915216684389</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9150576992282725</v>
+        <v>0.9602663802809015</v>
       </c>
       <c r="D10">
-        <v>0.9520442931450224</v>
+        <v>0.9877345559149662</v>
       </c>
       <c r="E10">
-        <v>0.9306048912318564</v>
+        <v>0.9747137837854015</v>
       </c>
       <c r="F10">
-        <v>0.8757457548717932</v>
+        <v>0.9742735924194451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013934927751297</v>
+        <v>1.031952651434816</v>
       </c>
       <c r="J10">
-        <v>0.9470997962636374</v>
+        <v>0.9901502292449325</v>
       </c>
       <c r="K10">
-        <v>0.9673369685553551</v>
+        <v>1.002328855265487</v>
       </c>
       <c r="L10">
-        <v>0.9463513184561065</v>
+        <v>0.98955510691596</v>
       </c>
       <c r="M10">
-        <v>0.8927903691995348</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>0.9891234178325863</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.904314053425991</v>
+        <v>0.9515728115373855</v>
       </c>
       <c r="D11">
-        <v>0.9438102772121674</v>
+        <v>0.98104043830052</v>
       </c>
       <c r="E11">
-        <v>0.9213468645887903</v>
+        <v>0.9668751324806532</v>
       </c>
       <c r="F11">
-        <v>0.861645833607909</v>
+        <v>0.965732376627277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010086775679746</v>
+        <v>1.028862033755047</v>
       </c>
       <c r="J11">
-        <v>0.938290566387191</v>
+        <v>0.98310883990708</v>
       </c>
       <c r="K11">
-        <v>0.9598757867404154</v>
+        <v>0.9963289858596137</v>
       </c>
       <c r="L11">
-        <v>0.9379218759397218</v>
+        <v>0.9824499913367025</v>
       </c>
       <c r="M11">
-        <v>0.8797518762683875</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>0.981330816481187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9001349369169596</v>
+        <v>0.9482421802145475</v>
       </c>
       <c r="D12">
-        <v>0.940611772245459</v>
+        <v>0.9784783659347117</v>
       </c>
       <c r="E12">
-        <v>0.9177485320943363</v>
+        <v>0.9638738100970407</v>
       </c>
       <c r="F12">
-        <v>0.8561381416992523</v>
+        <v>0.9624625491415613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008586859281919</v>
+        <v>1.027675309097342</v>
       </c>
       <c r="J12">
-        <v>0.9348619635728417</v>
+        <v>0.9804108720922172</v>
       </c>
       <c r="K12">
-        <v>0.9569726252708672</v>
+        <v>0.9940298373653467</v>
       </c>
       <c r="L12">
-        <v>0.9346415554967482</v>
+        <v>0.9797274777132837</v>
       </c>
       <c r="M12">
-        <v>0.8746598972223139</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>0.9783460619186537</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9010406193240276</v>
+        <v>0.9489614545538012</v>
       </c>
       <c r="D13">
-        <v>0.9413047234826143</v>
+        <v>0.9790315404202589</v>
       </c>
       <c r="E13">
-        <v>0.9185282052469104</v>
+        <v>0.9645218819423407</v>
       </c>
       <c r="F13">
-        <v>0.857332905631905</v>
+        <v>0.9631685781809997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008912046242702</v>
+        <v>1.027931706764151</v>
       </c>
       <c r="J13">
-        <v>0.9356050842515505</v>
+        <v>0.980993527509085</v>
       </c>
       <c r="K13">
-        <v>0.9576018190672825</v>
+        <v>0.9945263723064465</v>
       </c>
       <c r="L13">
-        <v>0.9353525113948766</v>
+        <v>0.9803154400320934</v>
       </c>
       <c r="M13">
-        <v>0.8757644185486632</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>0.9789906054889401</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9039727046874908</v>
+        <v>0.9512996595798864</v>
       </c>
       <c r="D14">
-        <v>0.9435489293815931</v>
+        <v>0.9808302627966264</v>
       </c>
       <c r="E14">
-        <v>0.921052891037881</v>
+        <v>0.9666289499011895</v>
       </c>
       <c r="F14">
-        <v>0.8611964729078219</v>
+        <v>0.9654641605214119</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00996432205915</v>
+        <v>1.028764760307825</v>
       </c>
       <c r="J14">
-        <v>0.9380105581811979</v>
+        <v>0.9828875786429576</v>
       </c>
       <c r="K14">
-        <v>0.9596386723937698</v>
+        <v>0.9961404361009335</v>
       </c>
       <c r="L14">
-        <v>0.9376539666309047</v>
+        <v>0.9822267197224424</v>
       </c>
       <c r="M14">
-        <v>0.8793364056960195</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>0.9810860148115778</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9057529973430571</v>
+        <v>0.9527264036121235</v>
       </c>
       <c r="D15">
-        <v>0.9449121634526536</v>
+        <v>0.9819281704300584</v>
       </c>
       <c r="E15">
-        <v>0.9225862212197896</v>
+        <v>0.9679148997292435</v>
       </c>
       <c r="F15">
-        <v>0.8635391315464301</v>
+        <v>0.9668652233907356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010602854577959</v>
+        <v>1.029272738712137</v>
       </c>
       <c r="J15">
-        <v>0.9394708535209874</v>
+        <v>0.9840432730935139</v>
       </c>
       <c r="K15">
-        <v>0.9608753017309138</v>
+        <v>0.9971252622186534</v>
       </c>
       <c r="L15">
-        <v>0.9390511843418023</v>
+        <v>0.9833929093926437</v>
       </c>
       <c r="M15">
-        <v>0.8815024332814811</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>0.9823647078896794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9157465301262258</v>
+        <v>0.9608299273796569</v>
       </c>
       <c r="D16">
-        <v>0.9525727523430371</v>
+        <v>0.98816880777798</v>
       </c>
       <c r="E16">
-        <v>0.9311988196248185</v>
+        <v>0.9752221362809631</v>
       </c>
       <c r="F16">
-        <v>0.8766470444721205</v>
+        <v>0.9748275807538881</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014181225537159</v>
+        <v>1.032152619446703</v>
       </c>
       <c r="J16">
-        <v>0.9476643381514307</v>
+        <v>0.9906066197548365</v>
       </c>
       <c r="K16">
-        <v>0.9678152024677559</v>
+        <v>1.002717698239419</v>
       </c>
       <c r="L16">
-        <v>0.9468915698607634</v>
+        <v>0.9900156109650744</v>
       </c>
       <c r="M16">
-        <v>0.8936239158667587</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.989628642846444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9217214422396119</v>
+        <v>0.9657477400301665</v>
       </c>
       <c r="D17">
-        <v>0.9571591705515647</v>
+        <v>0.9919598663882222</v>
       </c>
       <c r="E17">
-        <v>0.9363522062296105</v>
+        <v>0.9796594058891006</v>
       </c>
       <c r="F17">
-        <v>0.8844519850694066</v>
+        <v>0.9796636201838137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016315193185388</v>
+        <v>1.033895522748251</v>
       </c>
       <c r="J17">
-        <v>0.9525597252145025</v>
+        <v>0.9945889367277766</v>
       </c>
       <c r="K17">
-        <v>0.9719625000241047</v>
+        <v>1.006110352341239</v>
       </c>
       <c r="L17">
-        <v>0.9515765084632948</v>
+        <v>0.9940337333745012</v>
       </c>
       <c r="M17">
-        <v>0.9008425671779018</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9940378697233339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9251113108309676</v>
+        <v>0.9685608147941706</v>
       </c>
       <c r="D18">
-        <v>0.959763262995983</v>
+        <v>0.9941296223171247</v>
       </c>
       <c r="E18">
-        <v>0.9392772558053692</v>
+        <v>0.9821984803322552</v>
       </c>
       <c r="F18">
-        <v>0.8888703122593442</v>
+        <v>0.9824312456203868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01752384823012</v>
+        <v>1.034890691753045</v>
       </c>
       <c r="J18">
-        <v>0.9553359184725286</v>
+        <v>0.9968665292638454</v>
       </c>
       <c r="K18">
-        <v>0.974314664245293</v>
+        <v>1.008050461381754</v>
       </c>
       <c r="L18">
-        <v>0.9542334758284896</v>
+        <v>0.9963317328290848</v>
       </c>
       <c r="M18">
-        <v>0.9049291921259247</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9965602899725899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9262519110647932</v>
+        <v>0.969510967307239</v>
       </c>
       <c r="D19">
-        <v>0.9606397832310732</v>
+        <v>0.9948626761373269</v>
       </c>
       <c r="E19">
-        <v>0.9402616559604619</v>
+        <v>0.9830562266319891</v>
       </c>
       <c r="F19">
-        <v>0.8903554355946184</v>
+        <v>0.9833662655329506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017930172293869</v>
+        <v>1.035226511110424</v>
       </c>
       <c r="J19">
-        <v>0.9562698271110031</v>
+        <v>0.9976357477730607</v>
       </c>
       <c r="K19">
-        <v>0.9751059575394643</v>
+        <v>1.008705656520017</v>
       </c>
       <c r="L19">
-        <v>0.955127291972524</v>
+        <v>0.9971078317133545</v>
       </c>
       <c r="M19">
-        <v>0.9063028380127247</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9974123089002881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9210904556031323</v>
+        <v>0.9652259241134938</v>
       </c>
       <c r="D20">
-        <v>0.9566746035879298</v>
+        <v>0.9915574784978169</v>
       </c>
       <c r="E20">
-        <v>0.9358078402760385</v>
+        <v>0.9791884855553408</v>
       </c>
       <c r="F20">
-        <v>0.8836287961697028</v>
+        <v>0.979150341193179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016090045949251</v>
+        <v>1.033710774240814</v>
       </c>
       <c r="J20">
-        <v>0.9520428686403599</v>
+        <v>0.994166419929841</v>
       </c>
       <c r="K20">
-        <v>0.9715246022460836</v>
+        <v>1.005750421895214</v>
       </c>
       <c r="L20">
-        <v>0.9510818571814417</v>
+        <v>0.9936074251832648</v>
       </c>
       <c r="M20">
-        <v>0.9000811903023016</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9935699892827938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031148339939379</v>
+        <v>0.9506140414613129</v>
       </c>
       <c r="D21">
-        <v>0.9428921894768314</v>
+        <v>0.9803027597951532</v>
       </c>
       <c r="E21">
-        <v>0.9203141317649017</v>
+        <v>0.9660110552583077</v>
       </c>
       <c r="F21">
-        <v>0.8600667564151723</v>
+        <v>0.9647909714867359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656526767692</v>
+        <v>1.028520559741827</v>
       </c>
       <c r="J21">
-        <v>0.9373068163578632</v>
+        <v>0.982332203405221</v>
       </c>
       <c r="K21">
-        <v>0.9590427490767796</v>
+        <v>0.9956671646402875</v>
       </c>
       <c r="L21">
-        <v>0.936980641271825</v>
+        <v>0.9816662963211876</v>
       </c>
       <c r="M21">
-        <v>0.8782919111358197</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9804715688014121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8906935541877636</v>
+        <v>0.9408307974189236</v>
       </c>
       <c r="D22">
-        <v>0.9333953991352029</v>
+        <v>0.9727825881534612</v>
       </c>
       <c r="E22">
-        <v>0.9096256800999449</v>
+        <v>0.9571989230884844</v>
       </c>
       <c r="F22">
-        <v>0.843642924808003</v>
+        <v>0.9551913162053994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005193023972452</v>
+        <v>1.025029949363256</v>
       </c>
       <c r="J22">
-        <v>0.9271125255348823</v>
+        <v>0.9744070560574096</v>
       </c>
       <c r="K22">
-        <v>0.9504127854520259</v>
+        <v>0.9889132215324701</v>
       </c>
       <c r="L22">
-        <v>0.9272285095471251</v>
+        <v>0.9736687890054279</v>
       </c>
       <c r="M22">
-        <v>0.863110933009245</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9717059570420733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8974002148350931</v>
+        <v>0.9460789844617477</v>
       </c>
       <c r="D23">
-        <v>0.9385201349741438</v>
+        <v>0.9768151292859846</v>
       </c>
       <c r="E23">
-        <v>0.9153947901448034</v>
+        <v>0.9619250424647574</v>
       </c>
       <c r="F23">
-        <v>0.8525265378640369</v>
+        <v>0.9603395677566552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007604535261551</v>
+        <v>1.026903831015812</v>
       </c>
       <c r="J23">
-        <v>0.9326178164204675</v>
+        <v>0.9786585304172662</v>
       </c>
       <c r="K23">
-        <v>0.9550726745602265</v>
+        <v>0.9925364786246478</v>
       </c>
       <c r="L23">
-        <v>0.9324946354860215</v>
+        <v>0.9779591557847565</v>
       </c>
       <c r="M23">
-        <v>0.8713213164869571</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9764077416869679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9213758629571591</v>
+        <v>0.9654618804810275</v>
       </c>
       <c r="D24">
-        <v>0.9568937763752323</v>
+        <v>0.9917394278093202</v>
       </c>
       <c r="E24">
-        <v>0.9360540635005281</v>
+        <v>0.9794014250822537</v>
       </c>
       <c r="F24">
-        <v>0.8840011705534472</v>
+        <v>0.9793824331919877</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016191890798392</v>
+        <v>1.033794320035256</v>
       </c>
       <c r="J24">
-        <v>0.9522766565539061</v>
+        <v>0.9943574760552173</v>
       </c>
       <c r="K24">
-        <v>0.9717226743570925</v>
+        <v>1.005913178112555</v>
       </c>
       <c r="L24">
-        <v>0.9513056006931294</v>
+        <v>0.9938001959439409</v>
       </c>
       <c r="M24">
-        <v>0.9004256030938486</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9937815561268468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9455038186231672</v>
+        <v>0.9858070146646689</v>
       </c>
       <c r="D25">
-        <v>0.9754561827162872</v>
+        <v>1.007448857337462</v>
       </c>
       <c r="E25">
-        <v>0.9568907735382788</v>
+        <v>0.9977778548976662</v>
       </c>
       <c r="F25">
-        <v>0.9153181483625437</v>
+        <v>0.9994200701099175</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024757229012188</v>
+        <v>1.040958586364875</v>
       </c>
       <c r="J25">
-        <v>0.972015468293208</v>
+        <v>1.010821655530765</v>
       </c>
       <c r="K25">
-        <v>0.9884478466182575</v>
+        <v>1.019932629513301</v>
       </c>
       <c r="L25">
-        <v>0.9701973222565364</v>
+        <v>1.010410765029413</v>
       </c>
       <c r="M25">
-        <v>0.92939058333222</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.01202739541871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000677722001156</v>
+        <v>1.027546539507085</v>
       </c>
       <c r="D2">
-        <v>1.018952697495664</v>
+        <v>1.03802974619442</v>
       </c>
       <c r="E2">
-        <v>1.011227355439773</v>
+        <v>1.038234023019693</v>
       </c>
       <c r="F2">
-        <v>1.014098755413571</v>
+        <v>1.045011083396628</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046134924016225</v>
+        <v>1.053924796525241</v>
       </c>
       <c r="J2">
-        <v>1.022838181398836</v>
+        <v>1.048933435885843</v>
       </c>
       <c r="K2">
-        <v>1.030154157729524</v>
+        <v>1.048983520151904</v>
       </c>
       <c r="L2">
-        <v>1.02253246032787</v>
+        <v>1.049185206261739</v>
       </c>
       <c r="M2">
-        <v>1.025365105305355</v>
+        <v>1.055877033067515</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010828291341019</v>
+        <v>1.033057313288666</v>
       </c>
       <c r="D3">
-        <v>1.026812243694995</v>
+        <v>1.042080289993618</v>
       </c>
       <c r="E3">
-        <v>1.020415090838764</v>
+        <v>1.042952407172929</v>
       </c>
       <c r="F3">
-        <v>1.024134705595031</v>
+        <v>1.050155560702845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049631201467729</v>
+        <v>1.055821731036876</v>
       </c>
       <c r="J3">
-        <v>1.031028056574975</v>
+        <v>1.052685646226887</v>
       </c>
       <c r="K3">
-        <v>1.037113176496083</v>
+        <v>1.052201633898076</v>
       </c>
       <c r="L3">
-        <v>1.030793254038157</v>
+        <v>1.05306368899711</v>
       </c>
       <c r="M3">
-        <v>1.034467817555972</v>
+        <v>1.060184523849512</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017134032507357</v>
+        <v>1.036541609054722</v>
       </c>
       <c r="D4">
-        <v>1.031696649448541</v>
+        <v>1.044644116870192</v>
       </c>
       <c r="E4">
-        <v>1.026125271206508</v>
+        <v>1.045941306414195</v>
       </c>
       <c r="F4">
-        <v>1.030376208943292</v>
+        <v>1.053415055210897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051785393031311</v>
+        <v>1.057012099900299</v>
       </c>
       <c r="J4">
-        <v>1.036109375882573</v>
+        <v>1.055054615527615</v>
       </c>
       <c r="K4">
-        <v>1.041427001918678</v>
+        <v>1.054232006615047</v>
       </c>
       <c r="L4">
-        <v>1.035918289527394</v>
+        <v>1.05551516140928</v>
       </c>
       <c r="M4">
-        <v>1.040121338044372</v>
+        <v>1.062908873215729</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01972691476834</v>
+        <v>1.037987697569208</v>
       </c>
       <c r="D5">
-        <v>1.033705356218659</v>
+        <v>1.045708788881867</v>
       </c>
       <c r="E5">
-        <v>1.028473778375739</v>
+        <v>1.047183084933275</v>
       </c>
       <c r="F5">
-        <v>1.032944267602733</v>
+        <v>1.054769429175549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052666828469895</v>
+        <v>1.057503938179185</v>
       </c>
       <c r="J5">
-        <v>1.038197163020077</v>
+        <v>1.056036942820378</v>
       </c>
       <c r="K5">
-        <v>1.043198477161134</v>
+        <v>1.055073583401437</v>
       </c>
       <c r="L5">
-        <v>1.038023980034749</v>
+        <v>1.056532366049938</v>
       </c>
       <c r="M5">
-        <v>1.042445648536785</v>
+        <v>1.064039719135967</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020158994730128</v>
+        <v>1.038229427789118</v>
       </c>
       <c r="D6">
-        <v>1.034040099471753</v>
+        <v>1.045886794809899</v>
       </c>
       <c r="E6">
-        <v>1.028865163106261</v>
+        <v>1.047390737084235</v>
       </c>
       <c r="F6">
-        <v>1.033372302360512</v>
+        <v>1.054995920142046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052813452766548</v>
+        <v>1.057586024024074</v>
       </c>
       <c r="J6">
-        <v>1.038544975865061</v>
+        <v>1.056201097908983</v>
       </c>
       <c r="K6">
-        <v>1.043493535973619</v>
+        <v>1.055214197176724</v>
       </c>
       <c r="L6">
-        <v>1.038374772312868</v>
+        <v>1.056702388589055</v>
       </c>
       <c r="M6">
-        <v>1.042832948872024</v>
+        <v>1.064228760945363</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017168900964849</v>
+        <v>1.036561004235687</v>
       </c>
       <c r="D7">
-        <v>1.031723661220378</v>
+        <v>1.044658394115791</v>
       </c>
       <c r="E7">
-        <v>1.026156851445866</v>
+        <v>1.045957956303888</v>
       </c>
       <c r="F7">
-        <v>1.03041073737027</v>
+        <v>1.053433214096275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05179726375304</v>
+        <v>1.05701870526852</v>
       </c>
       <c r="J7">
-        <v>1.03613745847546</v>
+        <v>1.055067794145369</v>
       </c>
       <c r="K7">
-        <v>1.041450833739857</v>
+        <v>1.054243298351084</v>
       </c>
       <c r="L7">
-        <v>1.035946613155835</v>
+        <v>1.055528805298162</v>
       </c>
       <c r="M7">
-        <v>1.040152596427398</v>
+        <v>1.062924039744689</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004165531342373</v>
+        <v>1.02942632001109</v>
       </c>
       <c r="D8">
-        <v>1.021652770265779</v>
+        <v>1.039410801588807</v>
       </c>
       <c r="E8">
-        <v>1.014383714692898</v>
+        <v>1.039842301557791</v>
       </c>
       <c r="F8">
-        <v>1.017545646451974</v>
+        <v>1.046764459710106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047339988217166</v>
+        <v>1.054573726703661</v>
       </c>
       <c r="J8">
-        <v>1.025653586582975</v>
+        <v>1.050214049316666</v>
       </c>
       <c r="K8">
-        <v>1.032547216183108</v>
+        <v>1.050082133976092</v>
       </c>
       <c r="L8">
-        <v>1.025372311518998</v>
+        <v>1.050508330539009</v>
       </c>
       <c r="M8">
-        <v>1.028493082123102</v>
+        <v>1.057346153265619</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9789922610375779</v>
+        <v>1.016190423895746</v>
       </c>
       <c r="D9">
-        <v>1.002182557596146</v>
+        <v>1.029701208280513</v>
       </c>
       <c r="E9">
-        <v>0.9916191758914779</v>
+        <v>1.028544271276729</v>
       </c>
       <c r="F9">
-        <v>0.992702624612178</v>
+        <v>1.034449642281745</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038568234663884</v>
+        <v>1.049967789735443</v>
       </c>
       <c r="J9">
-        <v>1.005309308174359</v>
+        <v>1.041184131289325</v>
       </c>
       <c r="K9">
-        <v>1.015240323298188</v>
+        <v>1.042330106782919</v>
       </c>
       <c r="L9">
-        <v>1.004849705524379</v>
+        <v>1.041190611526455</v>
       </c>
       <c r="M9">
-        <v>1.005915216684389</v>
+        <v>1.047007474011662</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9602663802809015</v>
+        <v>1.006861056252817</v>
       </c>
       <c r="D10">
-        <v>0.9877345559149662</v>
+        <v>1.022879382140785</v>
       </c>
       <c r="E10">
-        <v>0.9747137837854015</v>
+        <v>1.020616865053372</v>
       </c>
       <c r="F10">
-        <v>0.9742735924194451</v>
+        <v>1.025811540030512</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031952651434816</v>
+        <v>1.046676509832708</v>
       </c>
       <c r="J10">
-        <v>0.9901502292449325</v>
+        <v>1.034805077934112</v>
       </c>
       <c r="K10">
-        <v>1.002328855265487</v>
+        <v>1.03684747480799</v>
       </c>
       <c r="L10">
-        <v>0.98955510691596</v>
+        <v>1.03462359263139</v>
       </c>
       <c r="M10">
-        <v>0.9891234178325863</v>
+        <v>1.039729890102946</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9515728115373855</v>
+        <v>1.002686772818625</v>
       </c>
       <c r="D11">
-        <v>0.98104043830052</v>
+        <v>1.019833431220637</v>
       </c>
       <c r="E11">
-        <v>0.9668751324806532</v>
+        <v>1.01707937257803</v>
       </c>
       <c r="F11">
-        <v>0.965732376627277</v>
+        <v>1.021957407292192</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028862033755047</v>
+        <v>1.045193921796205</v>
       </c>
       <c r="J11">
-        <v>0.98310883990708</v>
+        <v>1.031948204486672</v>
       </c>
       <c r="K11">
-        <v>0.9963289858596137</v>
+        <v>1.034390766152268</v>
       </c>
       <c r="L11">
-        <v>0.9824499913367025</v>
+        <v>1.031686227926237</v>
       </c>
       <c r="M11">
-        <v>0.981330816481187</v>
+        <v>1.036476787891977</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9482421802145475</v>
+        <v>1.001114655866102</v>
       </c>
       <c r="D12">
-        <v>0.9784783659347117</v>
+        <v>1.018687328489384</v>
       </c>
       <c r="E12">
-        <v>0.9638738100970407</v>
+        <v>1.015748598926614</v>
       </c>
       <c r="F12">
-        <v>0.9624625491415613</v>
+        <v>1.020507577250595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027675309097342</v>
+        <v>1.044634115269767</v>
       </c>
       <c r="J12">
-        <v>0.9804108720922172</v>
+        <v>1.030871916256733</v>
       </c>
       <c r="K12">
-        <v>0.9940298373653467</v>
+        <v>1.033465057436321</v>
       </c>
       <c r="L12">
-        <v>0.9797274777132837</v>
+        <v>1.030580174860877</v>
       </c>
       <c r="M12">
-        <v>0.9783460619186537</v>
+        <v>1.035252155732959</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9489614545538012</v>
+        <v>1.001452881320677</v>
       </c>
       <c r="D13">
-        <v>0.9790315404202589</v>
+        <v>1.018933851458341</v>
       </c>
       <c r="E13">
-        <v>0.9645218819423407</v>
+        <v>1.016034831838987</v>
       </c>
       <c r="F13">
-        <v>0.9631685781809997</v>
+        <v>1.020819415196548</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027931706764151</v>
+        <v>1.044754615910257</v>
       </c>
       <c r="J13">
-        <v>0.980993527509085</v>
+        <v>1.031103483010825</v>
       </c>
       <c r="K13">
-        <v>0.9945263723064465</v>
+        <v>1.033664234239328</v>
       </c>
       <c r="L13">
-        <v>0.9803154400320934</v>
+        <v>1.03081812027297</v>
       </c>
       <c r="M13">
-        <v>0.9789906054889401</v>
+        <v>1.035515597116355</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9512996595798864</v>
+        <v>1.002557270227599</v>
       </c>
       <c r="D14">
-        <v>0.9808302627966264</v>
+        <v>1.019738999203177</v>
       </c>
       <c r="E14">
-        <v>0.9666289499011895</v>
+        <v>1.016969719254363</v>
       </c>
       <c r="F14">
-        <v>0.9654641605214119</v>
+        <v>1.021837942784298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028764760307825</v>
+        <v>1.045147836706078</v>
       </c>
       <c r="J14">
-        <v>0.9828875786429576</v>
+        <v>1.031859551995015</v>
       </c>
       <c r="K14">
-        <v>0.9961404361009335</v>
+        <v>1.034314520193193</v>
       </c>
       <c r="L14">
-        <v>0.9822267197224424</v>
+        <v>1.031595112356662</v>
       </c>
       <c r="M14">
-        <v>0.9810860148115778</v>
+        <v>1.036375897603883</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9527264036121235</v>
+        <v>1.003234814862371</v>
       </c>
       <c r="D15">
-        <v>0.9819281704300584</v>
+        <v>1.020233101990538</v>
       </c>
       <c r="E15">
-        <v>0.9679148997292435</v>
+        <v>1.017543476750201</v>
       </c>
       <c r="F15">
-        <v>0.9668652233907356</v>
+        <v>1.022463039383372</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029272738712137</v>
+        <v>1.045388891238129</v>
       </c>
       <c r="J15">
-        <v>0.9840432730935139</v>
+        <v>1.032323359802257</v>
       </c>
       <c r="K15">
-        <v>0.9971252622186534</v>
+        <v>1.034713413002188</v>
       </c>
       <c r="L15">
-        <v>0.9833929093926437</v>
+        <v>1.03207182917476</v>
       </c>
       <c r="M15">
-        <v>0.9823647078896794</v>
+        <v>1.036903768395774</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608299273796569</v>
+        <v>1.007135138712085</v>
       </c>
       <c r="D16">
-        <v>0.98816880777798</v>
+        <v>1.023079519714551</v>
       </c>
       <c r="E16">
-        <v>0.9752221362809631</v>
+        <v>1.020849340823643</v>
       </c>
       <c r="F16">
-        <v>0.9748275807538881</v>
+        <v>1.026064833869187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032152619446703</v>
+        <v>1.046773654258807</v>
       </c>
       <c r="J16">
-        <v>0.9906066197548365</v>
+        <v>1.034992609689354</v>
       </c>
       <c r="K16">
-        <v>1.002717698239419</v>
+        <v>1.037008713315495</v>
       </c>
       <c r="L16">
-        <v>0.9900156109650744</v>
+        <v>1.034816485103258</v>
       </c>
       <c r="M16">
-        <v>0.989628642846444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.039943559788672</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9657477400301665</v>
+        <v>1.009544734586932</v>
       </c>
       <c r="D17">
-        <v>0.9919598663882222</v>
+        <v>1.024839764518607</v>
       </c>
       <c r="E17">
-        <v>0.9796594058891006</v>
+        <v>1.022894240562627</v>
       </c>
       <c r="F17">
-        <v>0.9796636201838137</v>
+        <v>1.028292908158302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033895522748251</v>
+        <v>1.047626576233937</v>
       </c>
       <c r="J17">
-        <v>0.9945889367277766</v>
+        <v>1.036641000317498</v>
       </c>
       <c r="K17">
-        <v>1.006110352341239</v>
+        <v>1.038425842815381</v>
       </c>
       <c r="L17">
-        <v>0.9940337333745012</v>
+        <v>1.036512415258069</v>
       </c>
       <c r="M17">
-        <v>0.9940378697233339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.0418224023639</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9685608147941706</v>
+        <v>1.010937322934804</v>
       </c>
       <c r="D18">
-        <v>0.9941296223171247</v>
+        <v>1.025857666106877</v>
       </c>
       <c r="E18">
-        <v>0.9821984803322552</v>
+        <v>1.024076951660769</v>
       </c>
       <c r="F18">
-        <v>0.9824312456203868</v>
+        <v>1.029581610257108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034890691753045</v>
+        <v>1.048118563184013</v>
       </c>
       <c r="J18">
-        <v>0.9968665292638454</v>
+        <v>1.037593405434371</v>
       </c>
       <c r="K18">
-        <v>1.008050461381754</v>
+        <v>1.039244506042334</v>
       </c>
       <c r="L18">
-        <v>0.9963317328290848</v>
+        <v>1.037492636236604</v>
       </c>
       <c r="M18">
-        <v>0.9965602899725899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.042908541992771</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.969510967307239</v>
+        <v>1.011410013454914</v>
       </c>
       <c r="D19">
-        <v>0.9948626761373269</v>
+        <v>1.026203273572238</v>
       </c>
       <c r="E19">
-        <v>0.9830562266319891</v>
+        <v>1.024478551916477</v>
       </c>
       <c r="F19">
-        <v>0.9833662655329506</v>
+        <v>1.030019209279028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035226511110424</v>
+        <v>1.048285397603216</v>
       </c>
       <c r="J19">
-        <v>0.9976357477730607</v>
+        <v>1.037916637795821</v>
       </c>
       <c r="K19">
-        <v>1.008705656520017</v>
+        <v>1.039522326786871</v>
       </c>
       <c r="L19">
-        <v>0.9971078317133545</v>
+        <v>1.037825367881688</v>
       </c>
       <c r="M19">
-        <v>0.9974123089002881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.043277260970012</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9652259241134938</v>
+        <v>1.009287550419621</v>
       </c>
       <c r="D20">
-        <v>0.9915574784978169</v>
+        <v>1.024651825203414</v>
       </c>
       <c r="E20">
-        <v>0.9791884855553408</v>
+        <v>1.022675888308374</v>
       </c>
       <c r="F20">
-        <v>0.979150341193179</v>
+        <v>1.028054991820189</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033710774240814</v>
+        <v>1.047535638816985</v>
       </c>
       <c r="J20">
-        <v>0.994166419929841</v>
+        <v>1.03646508828429</v>
       </c>
       <c r="K20">
-        <v>1.005750421895214</v>
+        <v>1.038274623138213</v>
       </c>
       <c r="L20">
-        <v>0.9936074251832648</v>
+        <v>1.036331393713513</v>
       </c>
       <c r="M20">
-        <v>0.9935699892827938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.041621836425878</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9506140414613129</v>
+        <v>1.002232663237359</v>
       </c>
       <c r="D21">
-        <v>0.9803027597951532</v>
+        <v>1.019502316442687</v>
       </c>
       <c r="E21">
-        <v>0.9660110552583077</v>
+        <v>1.016694890498596</v>
       </c>
       <c r="F21">
-        <v>0.9647909714867359</v>
+        <v>1.021538524775308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028520559741827</v>
+        <v>1.045032298428568</v>
       </c>
       <c r="J21">
-        <v>0.982332203405221</v>
+        <v>1.031637333398969</v>
       </c>
       <c r="K21">
-        <v>0.9956671646402875</v>
+        <v>1.034123397339795</v>
       </c>
       <c r="L21">
-        <v>0.9816662963211876</v>
+        <v>1.031366728766101</v>
       </c>
       <c r="M21">
-        <v>0.9804715688014121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.036123018411214</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9408307974189236</v>
+        <v>0.9976712170569981</v>
       </c>
       <c r="D22">
-        <v>0.9727825881534612</v>
+        <v>1.016179073975134</v>
       </c>
       <c r="E22">
-        <v>0.9571989230884844</v>
+        <v>1.012836670355204</v>
       </c>
       <c r="F22">
-        <v>0.9551913162053994</v>
+        <v>1.017335231788522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025029949363256</v>
+        <v>1.043405389613741</v>
       </c>
       <c r="J22">
-        <v>0.9744070560574096</v>
+        <v>1.02851396402213</v>
       </c>
       <c r="K22">
-        <v>0.9889132215324701</v>
+        <v>1.03143669240811</v>
       </c>
       <c r="L22">
-        <v>0.9736687890054279</v>
+        <v>1.028158048527377</v>
       </c>
       <c r="M22">
-        <v>0.9717059570420733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.032570922820662</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9460789844617477</v>
+        <v>1.000101739678795</v>
       </c>
       <c r="D23">
-        <v>0.9768151292859846</v>
+        <v>1.017949206634989</v>
       </c>
       <c r="E23">
-        <v>0.9619250424647574</v>
+        <v>1.014891618939853</v>
       </c>
       <c r="F23">
-        <v>0.9603395677566552</v>
+        <v>1.019573943727412</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026903831015812</v>
+        <v>1.044273035064411</v>
       </c>
       <c r="J23">
-        <v>0.9786585304172662</v>
+        <v>1.030178377556441</v>
       </c>
       <c r="K23">
-        <v>0.9925364786246478</v>
+        <v>1.032868501605964</v>
       </c>
       <c r="L23">
-        <v>0.9779591557847565</v>
+        <v>1.029867614540805</v>
       </c>
       <c r="M23">
-        <v>0.9764077416869679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.034463289460664</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9654618804810275</v>
+        <v>1.009403800601057</v>
       </c>
       <c r="D24">
-        <v>0.9917394278093202</v>
+        <v>1.024736774080959</v>
       </c>
       <c r="E24">
-        <v>0.9794014250822537</v>
+        <v>1.02277458325713</v>
       </c>
       <c r="F24">
-        <v>0.9793824331919877</v>
+        <v>1.028162529560372</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033794320035256</v>
+        <v>1.047576746507543</v>
       </c>
       <c r="J24">
-        <v>0.9943574760552173</v>
+        <v>1.036544603333552</v>
       </c>
       <c r="K24">
-        <v>1.005913178112555</v>
+        <v>1.038342977234532</v>
       </c>
       <c r="L24">
-        <v>0.9938001959439409</v>
+        <v>1.036413217262516</v>
       </c>
       <c r="M24">
-        <v>0.9937815561268468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.041712493621284</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9858070146646689</v>
+        <v>1.019696678523077</v>
       </c>
       <c r="D25">
-        <v>1.007448857337462</v>
+        <v>1.032269903466806</v>
       </c>
       <c r="E25">
-        <v>0.9977778548976662</v>
+        <v>1.031531279326462</v>
       </c>
       <c r="F25">
-        <v>0.9994200701099175</v>
+        <v>1.037704951087409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040958586364875</v>
+        <v>1.051195819898572</v>
       </c>
       <c r="J25">
-        <v>1.010821655530765</v>
+        <v>1.04357887905117</v>
       </c>
       <c r="K25">
-        <v>1.019932629513301</v>
+        <v>1.044387104097125</v>
       </c>
       <c r="L25">
-        <v>1.010410765029413</v>
+        <v>1.043659065869393</v>
       </c>
       <c r="M25">
-        <v>1.01202739541871</v>
+        <v>1.04974484279038</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027546539507085</v>
+        <v>1.057742643088169</v>
       </c>
       <c r="D2">
-        <v>1.03802974619442</v>
+        <v>1.055265475451534</v>
       </c>
       <c r="E2">
-        <v>1.038234023019693</v>
+        <v>1.063305949821053</v>
       </c>
       <c r="F2">
-        <v>1.045011083396628</v>
+        <v>1.072666294045031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053924796525241</v>
+        <v>1.048497942368824</v>
       </c>
       <c r="J2">
-        <v>1.048933435885843</v>
+        <v>1.062737480654799</v>
       </c>
       <c r="K2">
-        <v>1.048983520151904</v>
+        <v>1.058006408157197</v>
       </c>
       <c r="L2">
-        <v>1.049185206261739</v>
+        <v>1.066024946841664</v>
       </c>
       <c r="M2">
-        <v>1.055877033067515</v>
+        <v>1.075360202523922</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033057313288666</v>
+        <v>1.05888689826598</v>
       </c>
       <c r="D3">
-        <v>1.042080289993618</v>
+        <v>1.056120190283748</v>
       </c>
       <c r="E3">
-        <v>1.042952407172929</v>
+        <v>1.064334219556289</v>
       </c>
       <c r="F3">
-        <v>1.050155560702845</v>
+        <v>1.073797905950379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055821731036876</v>
+        <v>1.048832845641869</v>
       </c>
       <c r="J3">
-        <v>1.052685646226887</v>
+        <v>1.063533389887483</v>
       </c>
       <c r="K3">
-        <v>1.052201633898076</v>
+        <v>1.058674424707046</v>
       </c>
       <c r="L3">
-        <v>1.05306368899711</v>
+        <v>1.06686766622385</v>
       </c>
       <c r="M3">
-        <v>1.060184523849512</v>
+        <v>1.076307826669176</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036541609054722</v>
+        <v>1.059627357309382</v>
       </c>
       <c r="D4">
-        <v>1.044644116870192</v>
+        <v>1.056673222483377</v>
       </c>
       <c r="E4">
-        <v>1.045941306414195</v>
+        <v>1.064999939573589</v>
       </c>
       <c r="F4">
-        <v>1.053415055210897</v>
+        <v>1.074530671708417</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057012099900299</v>
+        <v>1.049048396441891</v>
       </c>
       <c r="J4">
-        <v>1.055054615527615</v>
+        <v>1.064047873578672</v>
       </c>
       <c r="K4">
-        <v>1.054232006615047</v>
+        <v>1.059106006876108</v>
       </c>
       <c r="L4">
-        <v>1.05551516140928</v>
+        <v>1.067412712781813</v>
       </c>
       <c r="M4">
-        <v>1.062908873215729</v>
+        <v>1.076920948638579</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037987697569208</v>
+        <v>1.059938658940513</v>
       </c>
       <c r="D5">
-        <v>1.045708788881867</v>
+        <v>1.056905711024509</v>
       </c>
       <c r="E5">
-        <v>1.047183084933275</v>
+        <v>1.065279894779086</v>
       </c>
       <c r="F5">
-        <v>1.054769429175549</v>
+        <v>1.074838855317227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057503938179185</v>
+        <v>1.049138737794471</v>
       </c>
       <c r="J5">
-        <v>1.056036942820378</v>
+        <v>1.064264037615963</v>
       </c>
       <c r="K5">
-        <v>1.055073583401437</v>
+        <v>1.059287283906702</v>
       </c>
       <c r="L5">
-        <v>1.056532366049938</v>
+        <v>1.067641790886076</v>
       </c>
       <c r="M5">
-        <v>1.064039719135967</v>
+        <v>1.077178692379642</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038229427789118</v>
+        <v>1.059990928619758</v>
       </c>
       <c r="D6">
-        <v>1.045886794809899</v>
+        <v>1.056944746507281</v>
       </c>
       <c r="E6">
-        <v>1.047390737084235</v>
+        <v>1.065326905567316</v>
       </c>
       <c r="F6">
-        <v>1.054995920142046</v>
+        <v>1.074890608267277</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057586024024074</v>
+        <v>1.049153890310421</v>
       </c>
       <c r="J6">
-        <v>1.056201097908983</v>
+        <v>1.064300325191844</v>
       </c>
       <c r="K6">
-        <v>1.055214197176724</v>
+        <v>1.059317711731517</v>
       </c>
       <c r="L6">
-        <v>1.056702388589055</v>
+        <v>1.067680250626315</v>
       </c>
       <c r="M6">
-        <v>1.064228760945363</v>
+        <v>1.077221967948303</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036561004235687</v>
+        <v>1.059631516886276</v>
       </c>
       <c r="D7">
-        <v>1.044658394115791</v>
+        <v>1.056676329031114</v>
       </c>
       <c r="E7">
-        <v>1.045957956303888</v>
+        <v>1.065003680008628</v>
       </c>
       <c r="F7">
-        <v>1.053433214096275</v>
+        <v>1.074534789166095</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05701870526852</v>
+        <v>1.049049604672666</v>
       </c>
       <c r="J7">
-        <v>1.055067794145369</v>
+        <v>1.064050762463592</v>
       </c>
       <c r="K7">
-        <v>1.054243298351084</v>
+        <v>1.059108429737676</v>
       </c>
       <c r="L7">
-        <v>1.055528805298162</v>
+        <v>1.067415773968073</v>
       </c>
       <c r="M7">
-        <v>1.062924039744689</v>
+        <v>1.076924392672788</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02942632001109</v>
+        <v>1.058129339738296</v>
       </c>
       <c r="D8">
-        <v>1.039410801588807</v>
+        <v>1.055554335539</v>
       </c>
       <c r="E8">
-        <v>1.039842301557791</v>
+        <v>1.06365338378799</v>
       </c>
       <c r="F8">
-        <v>1.046764459710106</v>
+        <v>1.073048616527131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054573726703661</v>
+        <v>1.04861136348502</v>
       </c>
       <c r="J8">
-        <v>1.050214049316666</v>
+        <v>1.063006570308762</v>
       </c>
       <c r="K8">
-        <v>1.050082133976092</v>
+        <v>1.058232306099749</v>
       </c>
       <c r="L8">
-        <v>1.050508330539009</v>
+        <v>1.066309799527064</v>
       </c>
       <c r="M8">
-        <v>1.057346153265619</v>
+        <v>1.075680467914101</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016190423895746</v>
+        <v>1.05548265348719</v>
       </c>
       <c r="D9">
-        <v>1.029701208280513</v>
+        <v>1.053577048780785</v>
       </c>
       <c r="E9">
-        <v>1.028544271276729</v>
+        <v>1.061276745052431</v>
       </c>
       <c r="F9">
-        <v>1.034449642281745</v>
+        <v>1.070433891671437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049967789735443</v>
+        <v>1.047830284881648</v>
       </c>
       <c r="J9">
-        <v>1.041184131289325</v>
+        <v>1.061162554552437</v>
       </c>
       <c r="K9">
-        <v>1.042330106782919</v>
+        <v>1.056683334283536</v>
       </c>
       <c r="L9">
-        <v>1.041190611526455</v>
+        <v>1.064359013159382</v>
       </c>
       <c r="M9">
-        <v>1.047007474011662</v>
+        <v>1.073488086938376</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006861056252817</v>
+        <v>1.0537183718387</v>
       </c>
       <c r="D10">
-        <v>1.022879382140785</v>
+        <v>1.052258732058412</v>
       </c>
       <c r="E10">
-        <v>1.020616865053372</v>
+        <v>1.059694159173466</v>
       </c>
       <c r="F10">
-        <v>1.025811540030512</v>
+        <v>1.068693478064747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046676509832708</v>
+        <v>1.047303615240334</v>
       </c>
       <c r="J10">
-        <v>1.034805077934112</v>
+        <v>1.05993049195408</v>
       </c>
       <c r="K10">
-        <v>1.03684747480799</v>
+        <v>1.055647228444097</v>
       </c>
       <c r="L10">
-        <v>1.03462359263139</v>
+        <v>1.06305718383358</v>
       </c>
       <c r="M10">
-        <v>1.039729890102946</v>
+        <v>1.072026194208775</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002686772818625</v>
+        <v>1.052954447290713</v>
       </c>
       <c r="D11">
-        <v>1.019833431220637</v>
+        <v>1.051687856299236</v>
       </c>
       <c r="E11">
-        <v>1.01707937257803</v>
+        <v>1.059009314651614</v>
       </c>
       <c r="F11">
-        <v>1.021957407292192</v>
+        <v>1.067940503135829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045193921796205</v>
+        <v>1.04707414830438</v>
       </c>
       <c r="J11">
-        <v>1.031948204486672</v>
+        <v>1.059396345447071</v>
       </c>
       <c r="K11">
-        <v>1.034390766152268</v>
+        <v>1.05519776031168</v>
       </c>
       <c r="L11">
-        <v>1.031686227926237</v>
+        <v>1.06249316358021</v>
       </c>
       <c r="M11">
-        <v>1.036476787891977</v>
+        <v>1.071393101094776</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001114655866102</v>
+        <v>1.052670693653543</v>
       </c>
       <c r="D12">
-        <v>1.018687328489384</v>
+        <v>1.051475802099835</v>
       </c>
       <c r="E12">
-        <v>1.015748598926614</v>
+        <v>1.058754996417077</v>
       </c>
       <c r="F12">
-        <v>1.020507577250595</v>
+        <v>1.067660909628143</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044634115269767</v>
+        <v>1.046988701185288</v>
       </c>
       <c r="J12">
-        <v>1.030871916256733</v>
+        <v>1.059197840681059</v>
       </c>
       <c r="K12">
-        <v>1.033465057436321</v>
+        <v>1.055030683194492</v>
       </c>
       <c r="L12">
-        <v>1.030580174860877</v>
+        <v>1.062283612872215</v>
       </c>
       <c r="M12">
-        <v>1.035252155732959</v>
+        <v>1.071157928985121</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001452881320677</v>
+        <v>1.052731559702917</v>
       </c>
       <c r="D13">
-        <v>1.018933851458341</v>
+        <v>1.05152128869749</v>
       </c>
       <c r="E13">
-        <v>1.016034831838987</v>
+        <v>1.058809545674457</v>
       </c>
       <c r="F13">
-        <v>1.020819415196548</v>
+        <v>1.067720879099393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044754615910257</v>
+        <v>1.047007039519243</v>
       </c>
       <c r="J13">
-        <v>1.031103483010825</v>
+        <v>1.059240425114225</v>
       </c>
       <c r="K13">
-        <v>1.033664234239328</v>
+        <v>1.055066527448699</v>
       </c>
       <c r="L13">
-        <v>1.03081812027297</v>
+        <v>1.06232856441133</v>
       </c>
       <c r="M13">
-        <v>1.035515597116355</v>
+        <v>1.071208374804029</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002557270227599</v>
+        <v>1.052930992093671</v>
       </c>
       <c r="D14">
-        <v>1.019738999203177</v>
+        <v>1.051670327946396</v>
       </c>
       <c r="E14">
-        <v>1.016969719254363</v>
+        <v>1.058988291333834</v>
       </c>
       <c r="F14">
-        <v>1.021837942784298</v>
+        <v>1.067917389916604</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045147836706078</v>
+        <v>1.047067089562846</v>
       </c>
       <c r="J14">
-        <v>1.031859551995015</v>
+        <v>1.059379939003177</v>
       </c>
       <c r="K14">
-        <v>1.034314520193193</v>
+        <v>1.05518395220954</v>
       </c>
       <c r="L14">
-        <v>1.031595112356662</v>
+        <v>1.062475843044817</v>
       </c>
       <c r="M14">
-        <v>1.036375897603883</v>
+        <v>1.071373661965922</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003234814862371</v>
+        <v>1.053053869194497</v>
       </c>
       <c r="D15">
-        <v>1.020233101990538</v>
+        <v>1.051762155210719</v>
       </c>
       <c r="E15">
-        <v>1.017543476750201</v>
+        <v>1.059098430837269</v>
       </c>
       <c r="F15">
-        <v>1.022463039383372</v>
+        <v>1.068038479275202</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045388891238129</v>
+        <v>1.047104060161173</v>
       </c>
       <c r="J15">
-        <v>1.032323359802257</v>
+        <v>1.059465884984527</v>
       </c>
       <c r="K15">
-        <v>1.034713413002188</v>
+        <v>1.055256284954519</v>
       </c>
       <c r="L15">
-        <v>1.03207182917476</v>
+        <v>1.062566579834789</v>
       </c>
       <c r="M15">
-        <v>1.036903768395774</v>
+        <v>1.071475499084662</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007135138712085</v>
+        <v>1.053769071335272</v>
       </c>
       <c r="D16">
-        <v>1.023079519714551</v>
+        <v>1.05229661843476</v>
       </c>
       <c r="E16">
-        <v>1.020849340823643</v>
+        <v>1.059739618979323</v>
       </c>
       <c r="F16">
-        <v>1.026064833869187</v>
+        <v>1.06874346387275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046773654258807</v>
+        <v>1.047318814363389</v>
       </c>
       <c r="J16">
-        <v>1.034992609689354</v>
+        <v>1.059965927648074</v>
       </c>
       <c r="K16">
-        <v>1.037008713315495</v>
+        <v>1.055677040702427</v>
       </c>
       <c r="L16">
-        <v>1.034816485103258</v>
+        <v>1.063094609227936</v>
       </c>
       <c r="M16">
-        <v>1.039943559788672</v>
+        <v>1.072068208700336</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009544734586932</v>
+        <v>1.054217703524464</v>
       </c>
       <c r="D17">
-        <v>1.024839764518607</v>
+        <v>1.0526318633887</v>
       </c>
       <c r="E17">
-        <v>1.022894240562627</v>
+        <v>1.060141933005299</v>
       </c>
       <c r="F17">
-        <v>1.028292908158302</v>
+        <v>1.06918585184855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047626576233937</v>
+        <v>1.047453144875125</v>
       </c>
       <c r="J17">
-        <v>1.036641000317498</v>
+        <v>1.060279415395715</v>
       </c>
       <c r="K17">
-        <v>1.038425842815381</v>
+        <v>1.055940747902787</v>
       </c>
       <c r="L17">
-        <v>1.036512415258069</v>
+        <v>1.063425742233347</v>
       </c>
       <c r="M17">
-        <v>1.0418224023639</v>
+        <v>1.072439976941479</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010937322934804</v>
+        <v>1.054479385201978</v>
       </c>
       <c r="D18">
-        <v>1.025857666106877</v>
+        <v>1.052827402641444</v>
       </c>
       <c r="E18">
-        <v>1.024076951660769</v>
+        <v>1.060376637063758</v>
       </c>
       <c r="F18">
-        <v>1.029581610257108</v>
+        <v>1.069443950640682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048118563184013</v>
+        <v>1.047531361028708</v>
       </c>
       <c r="J18">
-        <v>1.037593405434371</v>
+        <v>1.060462204305982</v>
       </c>
       <c r="K18">
-        <v>1.039244506042334</v>
+        <v>1.056094484034281</v>
       </c>
       <c r="L18">
-        <v>1.037492636236604</v>
+        <v>1.063618855710694</v>
       </c>
       <c r="M18">
-        <v>1.042908541992771</v>
+        <v>1.072656815005735</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011410013454914</v>
+        <v>1.054568612286542</v>
       </c>
       <c r="D19">
-        <v>1.026203273572238</v>
+        <v>1.052894075890942</v>
       </c>
       <c r="E19">
-        <v>1.024478551916477</v>
+        <v>1.060456672065651</v>
       </c>
       <c r="F19">
-        <v>1.030019209279028</v>
+        <v>1.06953196608643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048285397603216</v>
+        <v>1.047558007559305</v>
       </c>
       <c r="J19">
-        <v>1.037916637795821</v>
+        <v>1.060524519898648</v>
       </c>
       <c r="K19">
-        <v>1.039522326786871</v>
+        <v>1.056146890553712</v>
       </c>
       <c r="L19">
-        <v>1.037825367881688</v>
+        <v>1.063684697205409</v>
       </c>
       <c r="M19">
-        <v>1.043277260970012</v>
+        <v>1.072730749830938</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009287550419621</v>
+        <v>1.054169569326476</v>
       </c>
       <c r="D20">
-        <v>1.024651825203414</v>
+        <v>1.052595895136248</v>
       </c>
       <c r="E20">
-        <v>1.022675888308374</v>
+        <v>1.060098764270213</v>
       </c>
       <c r="F20">
-        <v>1.028054991820189</v>
+        <v>1.069138381461746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047535638816985</v>
+        <v>1.047438746609186</v>
       </c>
       <c r="J20">
-        <v>1.03646508828429</v>
+        <v>1.060245787666807</v>
       </c>
       <c r="K20">
-        <v>1.038274623138213</v>
+        <v>1.055912462873945</v>
       </c>
       <c r="L20">
-        <v>1.036331393713513</v>
+        <v>1.063390217984917</v>
       </c>
       <c r="M20">
-        <v>1.041621836425878</v>
+        <v>1.072400090565063</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002232663237359</v>
+        <v>1.052872264181078</v>
       </c>
       <c r="D21">
-        <v>1.019502316442687</v>
+        <v>1.051626439755826</v>
       </c>
       <c r="E21">
-        <v>1.016694890498596</v>
+        <v>1.058935653442426</v>
       </c>
       <c r="F21">
-        <v>1.021538524775308</v>
+        <v>1.067859519763686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045032298428568</v>
+        <v>1.047049412200045</v>
       </c>
       <c r="J21">
-        <v>1.031637333398969</v>
+        <v>1.05933885837644</v>
       </c>
       <c r="K21">
-        <v>1.034123397339795</v>
+        <v>1.055149376987478</v>
       </c>
       <c r="L21">
-        <v>1.031366728766101</v>
+        <v>1.062432474499874</v>
       </c>
       <c r="M21">
-        <v>1.036123018411214</v>
+        <v>1.071324989383373</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9976712170569981</v>
+        <v>1.052056607653305</v>
       </c>
       <c r="D22">
-        <v>1.016179073975134</v>
+        <v>1.051016872655342</v>
       </c>
       <c r="E22">
-        <v>1.012836670355204</v>
+        <v>1.058204726759069</v>
       </c>
       <c r="F22">
-        <v>1.017335231788522</v>
+        <v>1.067055997467426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043405389613741</v>
+        <v>1.04680339042755</v>
       </c>
       <c r="J22">
-        <v>1.02851396402213</v>
+        <v>1.058768063064962</v>
       </c>
       <c r="K22">
-        <v>1.03143669240811</v>
+        <v>1.05466887331453</v>
       </c>
       <c r="L22">
-        <v>1.028158048527377</v>
+        <v>1.061830022480809</v>
       </c>
       <c r="M22">
-        <v>1.032570922820662</v>
+        <v>1.070648954321431</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000101739678795</v>
+        <v>1.052489001999541</v>
       </c>
       <c r="D23">
-        <v>1.017949206634989</v>
+        <v>1.051340018787316</v>
       </c>
       <c r="E23">
-        <v>1.014891618939853</v>
+        <v>1.058592170155003</v>
       </c>
       <c r="F23">
-        <v>1.019573943727412</v>
+        <v>1.067481908016284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044273035064411</v>
+        <v>1.046933928054761</v>
       </c>
       <c r="J23">
-        <v>1.030178377556441</v>
+        <v>1.059070706935461</v>
       </c>
       <c r="K23">
-        <v>1.032868501605964</v>
+        <v>1.05492366588058</v>
       </c>
       <c r="L23">
-        <v>1.029867614540805</v>
+        <v>1.062149420453979</v>
       </c>
       <c r="M23">
-        <v>1.034463289460664</v>
+        <v>1.071007340706315</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009403800601057</v>
+        <v>1.054191319091735</v>
       </c>
       <c r="D24">
-        <v>1.024736774080959</v>
+        <v>1.052612147651829</v>
       </c>
       <c r="E24">
-        <v>1.02277458325713</v>
+        <v>1.060118270236234</v>
       </c>
       <c r="F24">
-        <v>1.028162529560372</v>
+        <v>1.069159831096326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047576746507543</v>
+        <v>1.047445252987638</v>
       </c>
       <c r="J24">
-        <v>1.036544603333552</v>
+        <v>1.060260982785035</v>
       </c>
       <c r="K24">
-        <v>1.038342977234532</v>
+        <v>1.055925243907414</v>
       </c>
       <c r="L24">
-        <v>1.036413217262516</v>
+        <v>1.063406269958622</v>
       </c>
       <c r="M24">
-        <v>1.041712493621284</v>
+        <v>1.072418113526351</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019696678523077</v>
+        <v>1.05616685038301</v>
       </c>
       <c r="D25">
-        <v>1.032269903466806</v>
+        <v>1.054088247130167</v>
       </c>
       <c r="E25">
-        <v>1.031531279326462</v>
+        <v>1.061890837888071</v>
       </c>
       <c r="F25">
-        <v>1.037704951087409</v>
+        <v>1.071109376884251</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051195819898572</v>
+        <v>1.048033260820294</v>
       </c>
       <c r="J25">
-        <v>1.04357887905117</v>
+        <v>1.061639754651754</v>
       </c>
       <c r="K25">
-        <v>1.044387104097125</v>
+        <v>1.057084389469652</v>
       </c>
       <c r="L25">
-        <v>1.043659065869393</v>
+        <v>1.064863567092965</v>
       </c>
       <c r="M25">
-        <v>1.04974484279038</v>
+        <v>1.074054922443649</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057742643088169</v>
+        <v>1.027546539507086</v>
       </c>
       <c r="D2">
-        <v>1.055265475451534</v>
+        <v>1.038029746194421</v>
       </c>
       <c r="E2">
-        <v>1.063305949821053</v>
+        <v>1.038234023019693</v>
       </c>
       <c r="F2">
-        <v>1.072666294045031</v>
+        <v>1.045011083396629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048497942368824</v>
+        <v>1.053924796525241</v>
       </c>
       <c r="J2">
-        <v>1.062737480654799</v>
+        <v>1.048933435885844</v>
       </c>
       <c r="K2">
-        <v>1.058006408157197</v>
+        <v>1.048983520151905</v>
       </c>
       <c r="L2">
-        <v>1.066024946841664</v>
+        <v>1.04918520626174</v>
       </c>
       <c r="M2">
-        <v>1.075360202523922</v>
+        <v>1.055877033067516</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05888689826598</v>
+        <v>1.033057313288667</v>
       </c>
       <c r="D3">
-        <v>1.056120190283748</v>
+        <v>1.042080289993618</v>
       </c>
       <c r="E3">
-        <v>1.064334219556289</v>
+        <v>1.042952407172929</v>
       </c>
       <c r="F3">
-        <v>1.073797905950379</v>
+        <v>1.050155560702845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048832845641869</v>
+        <v>1.055821731036876</v>
       </c>
       <c r="J3">
-        <v>1.063533389887483</v>
+        <v>1.052685646226887</v>
       </c>
       <c r="K3">
-        <v>1.058674424707046</v>
+        <v>1.052201633898077</v>
       </c>
       <c r="L3">
-        <v>1.06686766622385</v>
+        <v>1.05306368899711</v>
       </c>
       <c r="M3">
-        <v>1.076307826669176</v>
+        <v>1.060184523849512</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059627357309382</v>
+        <v>1.036541609054721</v>
       </c>
       <c r="D4">
-        <v>1.056673222483377</v>
+        <v>1.044644116870191</v>
       </c>
       <c r="E4">
-        <v>1.064999939573589</v>
+        <v>1.045941306414195</v>
       </c>
       <c r="F4">
-        <v>1.074530671708417</v>
+        <v>1.053415055210897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049048396441891</v>
+        <v>1.057012099900298</v>
       </c>
       <c r="J4">
-        <v>1.064047873578672</v>
+        <v>1.055054615527615</v>
       </c>
       <c r="K4">
-        <v>1.059106006876108</v>
+        <v>1.054232006615046</v>
       </c>
       <c r="L4">
-        <v>1.067412712781813</v>
+        <v>1.055515161409279</v>
       </c>
       <c r="M4">
-        <v>1.076920948638579</v>
+        <v>1.062908873215728</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059938658940513</v>
+        <v>1.037987697569206</v>
       </c>
       <c r="D5">
-        <v>1.056905711024509</v>
+        <v>1.045708788881865</v>
       </c>
       <c r="E5">
-        <v>1.065279894779086</v>
+        <v>1.047183084933273</v>
       </c>
       <c r="F5">
-        <v>1.074838855317227</v>
+        <v>1.054769429175547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049138737794471</v>
+        <v>1.057503938179184</v>
       </c>
       <c r="J5">
-        <v>1.064264037615963</v>
+        <v>1.056036942820375</v>
       </c>
       <c r="K5">
-        <v>1.059287283906702</v>
+        <v>1.055073583401435</v>
       </c>
       <c r="L5">
-        <v>1.067641790886076</v>
+        <v>1.056532366049936</v>
       </c>
       <c r="M5">
-        <v>1.077178692379642</v>
+        <v>1.064039719135964</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059990928619758</v>
+        <v>1.038229427789118</v>
       </c>
       <c r="D6">
-        <v>1.056944746507281</v>
+        <v>1.045886794809899</v>
       </c>
       <c r="E6">
-        <v>1.065326905567316</v>
+        <v>1.047390737084235</v>
       </c>
       <c r="F6">
-        <v>1.074890608267277</v>
+        <v>1.054995920142046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049153890310421</v>
+        <v>1.057586024024074</v>
       </c>
       <c r="J6">
-        <v>1.064300325191844</v>
+        <v>1.056201097908983</v>
       </c>
       <c r="K6">
-        <v>1.059317711731517</v>
+        <v>1.055214197176725</v>
       </c>
       <c r="L6">
-        <v>1.067680250626315</v>
+        <v>1.056702388589055</v>
       </c>
       <c r="M6">
-        <v>1.077221967948303</v>
+        <v>1.064228760945362</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059631516886276</v>
+        <v>1.036561004235686</v>
       </c>
       <c r="D7">
-        <v>1.056676329031114</v>
+        <v>1.044658394115791</v>
       </c>
       <c r="E7">
-        <v>1.065003680008628</v>
+        <v>1.045957956303888</v>
       </c>
       <c r="F7">
-        <v>1.074534789166095</v>
+        <v>1.053433214096275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049049604672666</v>
+        <v>1.05701870526852</v>
       </c>
       <c r="J7">
-        <v>1.064050762463592</v>
+        <v>1.055067794145368</v>
       </c>
       <c r="K7">
-        <v>1.059108429737676</v>
+        <v>1.054243298351084</v>
       </c>
       <c r="L7">
-        <v>1.067415773968073</v>
+        <v>1.055528805298162</v>
       </c>
       <c r="M7">
-        <v>1.076924392672788</v>
+        <v>1.062924039744688</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058129339738296</v>
+        <v>1.02942632001109</v>
       </c>
       <c r="D8">
-        <v>1.055554335539</v>
+        <v>1.039410801588807</v>
       </c>
       <c r="E8">
-        <v>1.06365338378799</v>
+        <v>1.039842301557791</v>
       </c>
       <c r="F8">
-        <v>1.073048616527131</v>
+        <v>1.046764459710106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04861136348502</v>
+        <v>1.054573726703661</v>
       </c>
       <c r="J8">
-        <v>1.063006570308762</v>
+        <v>1.050214049316666</v>
       </c>
       <c r="K8">
-        <v>1.058232306099749</v>
+        <v>1.050082133976091</v>
       </c>
       <c r="L8">
-        <v>1.066309799527064</v>
+        <v>1.050508330539009</v>
       </c>
       <c r="M8">
-        <v>1.075680467914101</v>
+        <v>1.057346153265619</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05548265348719</v>
+        <v>1.016190423895746</v>
       </c>
       <c r="D9">
-        <v>1.053577048780785</v>
+        <v>1.029701208280513</v>
       </c>
       <c r="E9">
-        <v>1.061276745052431</v>
+        <v>1.028544271276729</v>
       </c>
       <c r="F9">
-        <v>1.070433891671437</v>
+        <v>1.034449642281746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047830284881648</v>
+        <v>1.049967789735442</v>
       </c>
       <c r="J9">
-        <v>1.061162554552437</v>
+        <v>1.041184131289325</v>
       </c>
       <c r="K9">
-        <v>1.056683334283536</v>
+        <v>1.042330106782919</v>
       </c>
       <c r="L9">
-        <v>1.064359013159382</v>
+        <v>1.041190611526455</v>
       </c>
       <c r="M9">
-        <v>1.073488086938376</v>
+        <v>1.047007474011663</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0537183718387</v>
+        <v>1.006861056252815</v>
       </c>
       <c r="D10">
-        <v>1.052258732058412</v>
+        <v>1.022879382140784</v>
       </c>
       <c r="E10">
-        <v>1.059694159173466</v>
+        <v>1.020616865053369</v>
       </c>
       <c r="F10">
-        <v>1.068693478064747</v>
+        <v>1.02581154003051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047303615240334</v>
+        <v>1.046676509832707</v>
       </c>
       <c r="J10">
-        <v>1.05993049195408</v>
+        <v>1.034805077934109</v>
       </c>
       <c r="K10">
-        <v>1.055647228444097</v>
+        <v>1.036847474807988</v>
       </c>
       <c r="L10">
-        <v>1.06305718383358</v>
+        <v>1.034623592631389</v>
       </c>
       <c r="M10">
-        <v>1.072026194208775</v>
+        <v>1.039729890102944</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052954447290713</v>
+        <v>1.002686772818626</v>
       </c>
       <c r="D11">
-        <v>1.051687856299236</v>
+        <v>1.019833431220638</v>
       </c>
       <c r="E11">
-        <v>1.059009314651614</v>
+        <v>1.01707937257803</v>
       </c>
       <c r="F11">
-        <v>1.067940503135829</v>
+        <v>1.021957407292193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04707414830438</v>
+        <v>1.045193921796206</v>
       </c>
       <c r="J11">
-        <v>1.059396345447071</v>
+        <v>1.031948204486672</v>
       </c>
       <c r="K11">
-        <v>1.05519776031168</v>
+        <v>1.034390766152269</v>
       </c>
       <c r="L11">
-        <v>1.06249316358021</v>
+        <v>1.031686227926237</v>
       </c>
       <c r="M11">
-        <v>1.071393101094776</v>
+        <v>1.036476787891978</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052670693653543</v>
+        <v>1.001114655866102</v>
       </c>
       <c r="D12">
-        <v>1.051475802099835</v>
+        <v>1.018687328489383</v>
       </c>
       <c r="E12">
-        <v>1.058754996417077</v>
+        <v>1.015748598926613</v>
       </c>
       <c r="F12">
-        <v>1.067660909628143</v>
+        <v>1.020507577250594</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046988701185288</v>
+        <v>1.044634115269767</v>
       </c>
       <c r="J12">
-        <v>1.059197840681059</v>
+        <v>1.030871916256732</v>
       </c>
       <c r="K12">
-        <v>1.055030683194492</v>
+        <v>1.033465057436321</v>
       </c>
       <c r="L12">
-        <v>1.062283612872215</v>
+        <v>1.030580174860876</v>
       </c>
       <c r="M12">
-        <v>1.071157928985121</v>
+        <v>1.035252155732958</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052731559702917</v>
+        <v>1.001452881320676</v>
       </c>
       <c r="D13">
-        <v>1.05152128869749</v>
+        <v>1.018933851458341</v>
       </c>
       <c r="E13">
-        <v>1.058809545674457</v>
+        <v>1.016034831838987</v>
       </c>
       <c r="F13">
-        <v>1.067720879099393</v>
+        <v>1.020819415196547</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047007039519243</v>
+        <v>1.044754615910257</v>
       </c>
       <c r="J13">
-        <v>1.059240425114225</v>
+        <v>1.031103483010825</v>
       </c>
       <c r="K13">
-        <v>1.055066527448699</v>
+        <v>1.033664234239328</v>
       </c>
       <c r="L13">
-        <v>1.06232856441133</v>
+        <v>1.03081812027297</v>
       </c>
       <c r="M13">
-        <v>1.071208374804029</v>
+        <v>1.035515597116355</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052930992093671</v>
+        <v>1.0025572702276</v>
       </c>
       <c r="D14">
-        <v>1.051670327946396</v>
+        <v>1.019738999203178</v>
       </c>
       <c r="E14">
-        <v>1.058988291333834</v>
+        <v>1.016969719254364</v>
       </c>
       <c r="F14">
-        <v>1.067917389916604</v>
+        <v>1.021837942784299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047067089562846</v>
+        <v>1.045147836706079</v>
       </c>
       <c r="J14">
-        <v>1.059379939003177</v>
+        <v>1.031859551995017</v>
       </c>
       <c r="K14">
-        <v>1.05518395220954</v>
+        <v>1.034314520193195</v>
       </c>
       <c r="L14">
-        <v>1.062475843044817</v>
+        <v>1.031595112356663</v>
       </c>
       <c r="M14">
-        <v>1.071373661965922</v>
+        <v>1.036375897603884</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053053869194497</v>
+        <v>1.003234814862372</v>
       </c>
       <c r="D15">
-        <v>1.051762155210719</v>
+        <v>1.020233101990539</v>
       </c>
       <c r="E15">
-        <v>1.059098430837269</v>
+        <v>1.017543476750202</v>
       </c>
       <c r="F15">
-        <v>1.068038479275202</v>
+        <v>1.022463039383373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047104060161173</v>
+        <v>1.045388891238129</v>
       </c>
       <c r="J15">
-        <v>1.059465884984527</v>
+        <v>1.032323359802258</v>
       </c>
       <c r="K15">
-        <v>1.055256284954519</v>
+        <v>1.034713413002189</v>
       </c>
       <c r="L15">
-        <v>1.062566579834789</v>
+        <v>1.032071829174761</v>
       </c>
       <c r="M15">
-        <v>1.071475499084662</v>
+        <v>1.036903768395776</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053769071335272</v>
+        <v>1.007135138712084</v>
       </c>
       <c r="D16">
-        <v>1.05229661843476</v>
+        <v>1.023079519714551</v>
       </c>
       <c r="E16">
-        <v>1.059739618979323</v>
+        <v>1.020849340823643</v>
       </c>
       <c r="F16">
-        <v>1.06874346387275</v>
+        <v>1.026064833869186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047318814363389</v>
+        <v>1.046773654258806</v>
       </c>
       <c r="J16">
-        <v>1.059965927648074</v>
+        <v>1.034992609689353</v>
       </c>
       <c r="K16">
-        <v>1.055677040702427</v>
+        <v>1.037008713315495</v>
       </c>
       <c r="L16">
-        <v>1.063094609227936</v>
+        <v>1.034816485103257</v>
       </c>
       <c r="M16">
-        <v>1.072068208700336</v>
+        <v>1.039943559788671</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054217703524464</v>
+        <v>1.009544734586932</v>
       </c>
       <c r="D17">
-        <v>1.0526318633887</v>
+        <v>1.024839764518607</v>
       </c>
       <c r="E17">
-        <v>1.060141933005299</v>
+        <v>1.022894240562627</v>
       </c>
       <c r="F17">
-        <v>1.06918585184855</v>
+        <v>1.028292908158303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047453144875125</v>
+        <v>1.047626576233937</v>
       </c>
       <c r="J17">
-        <v>1.060279415395715</v>
+        <v>1.036641000317499</v>
       </c>
       <c r="K17">
-        <v>1.055940747902787</v>
+        <v>1.038425842815381</v>
       </c>
       <c r="L17">
-        <v>1.063425742233347</v>
+        <v>1.03651241525807</v>
       </c>
       <c r="M17">
-        <v>1.072439976941479</v>
+        <v>1.0418224023639</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054479385201978</v>
+        <v>1.010937322934806</v>
       </c>
       <c r="D18">
-        <v>1.052827402641444</v>
+        <v>1.025857666106879</v>
       </c>
       <c r="E18">
-        <v>1.060376637063758</v>
+        <v>1.02407695166077</v>
       </c>
       <c r="F18">
-        <v>1.069443950640682</v>
+        <v>1.02958161025711</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047531361028708</v>
+        <v>1.048118563184013</v>
       </c>
       <c r="J18">
-        <v>1.060462204305982</v>
+        <v>1.037593405434373</v>
       </c>
       <c r="K18">
-        <v>1.056094484034281</v>
+        <v>1.039244506042335</v>
       </c>
       <c r="L18">
-        <v>1.063618855710694</v>
+        <v>1.037492636236605</v>
       </c>
       <c r="M18">
-        <v>1.072656815005735</v>
+        <v>1.042908541992772</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054568612286542</v>
+        <v>1.011410013454913</v>
       </c>
       <c r="D19">
-        <v>1.052894075890942</v>
+        <v>1.026203273572237</v>
       </c>
       <c r="E19">
-        <v>1.060456672065651</v>
+        <v>1.024478551916475</v>
       </c>
       <c r="F19">
-        <v>1.06953196608643</v>
+        <v>1.030019209279026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047558007559305</v>
+        <v>1.048285397603216</v>
       </c>
       <c r="J19">
-        <v>1.060524519898648</v>
+        <v>1.037916637795819</v>
       </c>
       <c r="K19">
-        <v>1.056146890553712</v>
+        <v>1.039522326786869</v>
       </c>
       <c r="L19">
-        <v>1.063684697205409</v>
+        <v>1.037825367881687</v>
       </c>
       <c r="M19">
-        <v>1.072730749830938</v>
+        <v>1.043277260970011</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054169569326476</v>
+        <v>1.00928755041962</v>
       </c>
       <c r="D20">
-        <v>1.052595895136248</v>
+        <v>1.024651825203414</v>
       </c>
       <c r="E20">
-        <v>1.060098764270213</v>
+        <v>1.022675888308373</v>
       </c>
       <c r="F20">
-        <v>1.069138381461746</v>
+        <v>1.028054991820188</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047438746609186</v>
+        <v>1.047535638816985</v>
       </c>
       <c r="J20">
-        <v>1.060245787666807</v>
+        <v>1.03646508828429</v>
       </c>
       <c r="K20">
-        <v>1.055912462873945</v>
+        <v>1.038274623138213</v>
       </c>
       <c r="L20">
-        <v>1.063390217984917</v>
+        <v>1.036331393713513</v>
       </c>
       <c r="M20">
-        <v>1.072400090565063</v>
+        <v>1.041621836425878</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052872264181078</v>
+        <v>1.002232663237359</v>
       </c>
       <c r="D21">
-        <v>1.051626439755826</v>
+        <v>1.019502316442687</v>
       </c>
       <c r="E21">
-        <v>1.058935653442426</v>
+        <v>1.016694890498596</v>
       </c>
       <c r="F21">
-        <v>1.067859519763686</v>
+        <v>1.021538524775308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047049412200045</v>
+        <v>1.045032298428568</v>
       </c>
       <c r="J21">
-        <v>1.05933885837644</v>
+        <v>1.031637333398969</v>
       </c>
       <c r="K21">
-        <v>1.055149376987478</v>
+        <v>1.034123397339795</v>
       </c>
       <c r="L21">
-        <v>1.062432474499874</v>
+        <v>1.031366728766101</v>
       </c>
       <c r="M21">
-        <v>1.071324989383373</v>
+        <v>1.036123018411214</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052056607653305</v>
+        <v>0.9976712170569972</v>
       </c>
       <c r="D22">
-        <v>1.051016872655342</v>
+        <v>1.016179073975134</v>
       </c>
       <c r="E22">
-        <v>1.058204726759069</v>
+        <v>1.012836670355203</v>
       </c>
       <c r="F22">
-        <v>1.067055997467426</v>
+        <v>1.017335231788522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04680339042755</v>
+        <v>1.04340538961374</v>
       </c>
       <c r="J22">
-        <v>1.058768063064962</v>
+        <v>1.028513964022129</v>
       </c>
       <c r="K22">
-        <v>1.05466887331453</v>
+        <v>1.031436692408109</v>
       </c>
       <c r="L22">
-        <v>1.061830022480809</v>
+        <v>1.028158048527376</v>
       </c>
       <c r="M22">
-        <v>1.070648954321431</v>
+        <v>1.032570922820661</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052489001999541</v>
+        <v>1.000101739678794</v>
       </c>
       <c r="D23">
-        <v>1.051340018787316</v>
+        <v>1.017949206634988</v>
       </c>
       <c r="E23">
-        <v>1.058592170155003</v>
+        <v>1.014891618939852</v>
       </c>
       <c r="F23">
-        <v>1.067481908016284</v>
+        <v>1.019573943727411</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046933928054761</v>
+        <v>1.04427303506441</v>
       </c>
       <c r="J23">
-        <v>1.059070706935461</v>
+        <v>1.03017837755644</v>
       </c>
       <c r="K23">
-        <v>1.05492366588058</v>
+        <v>1.032868501605963</v>
       </c>
       <c r="L23">
-        <v>1.062149420453979</v>
+        <v>1.029867614540805</v>
       </c>
       <c r="M23">
-        <v>1.071007340706315</v>
+        <v>1.034463289460663</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054191319091735</v>
+        <v>1.009403800601059</v>
       </c>
       <c r="D24">
-        <v>1.052612147651829</v>
+        <v>1.024736774080961</v>
       </c>
       <c r="E24">
-        <v>1.060118270236234</v>
+        <v>1.022774583257131</v>
       </c>
       <c r="F24">
-        <v>1.069159831096326</v>
+        <v>1.028162529560374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047445252987638</v>
+        <v>1.047576746507544</v>
       </c>
       <c r="J24">
-        <v>1.060260982785035</v>
+        <v>1.036544603333553</v>
       </c>
       <c r="K24">
-        <v>1.055925243907414</v>
+        <v>1.038342977234533</v>
       </c>
       <c r="L24">
-        <v>1.063406269958622</v>
+        <v>1.036413217262517</v>
       </c>
       <c r="M24">
-        <v>1.072418113526351</v>
+        <v>1.041712493621286</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05616685038301</v>
+        <v>1.019696678523079</v>
       </c>
       <c r="D25">
-        <v>1.054088247130167</v>
+        <v>1.032269903466808</v>
       </c>
       <c r="E25">
-        <v>1.061890837888071</v>
+        <v>1.031531279326463</v>
       </c>
       <c r="F25">
-        <v>1.071109376884251</v>
+        <v>1.037704951087411</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048033260820294</v>
+        <v>1.051195819898572</v>
       </c>
       <c r="J25">
-        <v>1.061639754651754</v>
+        <v>1.043578879051172</v>
       </c>
       <c r="K25">
-        <v>1.057084389469652</v>
+        <v>1.044387104097126</v>
       </c>
       <c r="L25">
-        <v>1.064863567092965</v>
+        <v>1.043659065869395</v>
       </c>
       <c r="M25">
-        <v>1.074054922443649</v>
+        <v>1.049744842790382</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027546539507086</v>
+        <v>1.013124378401622</v>
       </c>
       <c r="D2">
-        <v>1.038029746194421</v>
+        <v>1.029309845461657</v>
       </c>
       <c r="E2">
-        <v>1.038234023019693</v>
+        <v>1.025197348803794</v>
       </c>
       <c r="F2">
-        <v>1.045011083396629</v>
+        <v>1.032155548613419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053924796525241</v>
+        <v>1.051393176224904</v>
       </c>
       <c r="J2">
-        <v>1.048933435885844</v>
+        <v>1.034919504434081</v>
       </c>
       <c r="K2">
-        <v>1.048983520151905</v>
+        <v>1.040375408226355</v>
       </c>
       <c r="L2">
-        <v>1.04918520626174</v>
+        <v>1.036316460329399</v>
       </c>
       <c r="M2">
-        <v>1.055877033067516</v>
+        <v>1.043184369932117</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042749919193533</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039619190474689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033057313288667</v>
+        <v>1.018811576250976</v>
       </c>
       <c r="D3">
-        <v>1.042080289993618</v>
+        <v>1.033168182847003</v>
       </c>
       <c r="E3">
-        <v>1.042952407172929</v>
+        <v>1.029805872049066</v>
       </c>
       <c r="F3">
-        <v>1.050155560702845</v>
+        <v>1.036386187634742</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055821731036876</v>
+        <v>1.052861767200196</v>
       </c>
       <c r="J3">
-        <v>1.052685646226887</v>
+        <v>1.038802232092843</v>
       </c>
       <c r="K3">
-        <v>1.052201633898077</v>
+        <v>1.043393555988065</v>
       </c>
       <c r="L3">
-        <v>1.05306368899711</v>
+        <v>1.040071072458458</v>
       </c>
       <c r="M3">
-        <v>1.060184523849512</v>
+        <v>1.046573742320245</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045432366914408</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041750621729473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036541609054721</v>
+        <v>1.022401934638381</v>
       </c>
       <c r="D4">
-        <v>1.044644116870191</v>
+        <v>1.035605009740105</v>
       </c>
       <c r="E4">
-        <v>1.045941306414195</v>
+        <v>1.03272111479527</v>
       </c>
       <c r="F4">
-        <v>1.053415055210897</v>
+        <v>1.039067029329787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057012099900298</v>
+        <v>1.053773383487387</v>
       </c>
       <c r="J4">
-        <v>1.055054615527615</v>
+        <v>1.041249451720953</v>
       </c>
       <c r="K4">
-        <v>1.054232006615046</v>
+        <v>1.045291896534964</v>
       </c>
       <c r="L4">
-        <v>1.055515161409279</v>
+        <v>1.04244003483001</v>
       </c>
       <c r="M4">
-        <v>1.062908873215728</v>
+        <v>1.048715749820053</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047127608781991</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043093799148177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037987697569206</v>
+        <v>1.023897597893885</v>
       </c>
       <c r="D5">
-        <v>1.045708788881865</v>
+        <v>1.036622675714917</v>
       </c>
       <c r="E5">
-        <v>1.047183084933273</v>
+        <v>1.033938341388504</v>
       </c>
       <c r="F5">
-        <v>1.054769429175547</v>
+        <v>1.040186350536023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057503938179184</v>
+        <v>1.054151185987969</v>
       </c>
       <c r="J5">
-        <v>1.056036942820375</v>
+        <v>1.042269919407374</v>
       </c>
       <c r="K5">
-        <v>1.055073583401435</v>
+        <v>1.046084273105153</v>
       </c>
       <c r="L5">
-        <v>1.056532366049936</v>
+        <v>1.043428936756467</v>
       </c>
       <c r="M5">
-        <v>1.064039719135964</v>
+        <v>1.049609733932247</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047835130500391</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043661208703652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038229427789118</v>
+        <v>1.024155851569044</v>
       </c>
       <c r="D6">
-        <v>1.045886794809899</v>
+        <v>1.036801277103024</v>
       </c>
       <c r="E6">
-        <v>1.047390737084235</v>
+        <v>1.03415036469932</v>
       </c>
       <c r="F6">
-        <v>1.054995920142046</v>
+        <v>1.040380002027317</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057586024024074</v>
+        <v>1.054218437327539</v>
       </c>
       <c r="J6">
-        <v>1.056201097908983</v>
+        <v>1.042448509657355</v>
       </c>
       <c r="K6">
-        <v>1.055214197176725</v>
+        <v>1.046225022776551</v>
       </c>
       <c r="L6">
-        <v>1.056702388589055</v>
+        <v>1.043602611797933</v>
       </c>
       <c r="M6">
-        <v>1.064228760945362</v>
+        <v>1.049765552876475</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047958449498753</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043769430331409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036561004235686</v>
+        <v>1.022444508095814</v>
       </c>
       <c r="D7">
-        <v>1.044658394115791</v>
+        <v>1.035641692094627</v>
       </c>
       <c r="E7">
-        <v>1.045957956303888</v>
+        <v>1.032760619374667</v>
       </c>
       <c r="F7">
-        <v>1.053433214096275</v>
+        <v>1.039099585711919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05701870526852</v>
+        <v>1.053790182050137</v>
       </c>
       <c r="J7">
-        <v>1.055067794145368</v>
+        <v>1.04128511201108</v>
       </c>
       <c r="K7">
-        <v>1.054243298351084</v>
+        <v>1.045325309205248</v>
       </c>
       <c r="L7">
-        <v>1.055528805298162</v>
+        <v>1.042476224819626</v>
       </c>
       <c r="M7">
-        <v>1.062924039744688</v>
+        <v>1.048745097815794</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047150835541514</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043137445790941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02942632001109</v>
+        <v>1.015094408753814</v>
       </c>
       <c r="D8">
-        <v>1.039410801588807</v>
+        <v>1.030655731136177</v>
       </c>
       <c r="E8">
-        <v>1.039842301557791</v>
+        <v>1.026799081550145</v>
       </c>
       <c r="F8">
-        <v>1.046764459710106</v>
+        <v>1.033620084555986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054573726703661</v>
+        <v>1.051912504986712</v>
       </c>
       <c r="J8">
-        <v>1.050214049316666</v>
+        <v>1.036273634533472</v>
       </c>
       <c r="K8">
-        <v>1.050082133976091</v>
+        <v>1.041435864721764</v>
       </c>
       <c r="L8">
-        <v>1.050508330539009</v>
+        <v>1.037627877351306</v>
       </c>
       <c r="M8">
-        <v>1.057346153265619</v>
+        <v>1.044363122300136</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043682819161544</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040391879651372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016190423895746</v>
+        <v>1.001374439607326</v>
       </c>
       <c r="D9">
-        <v>1.029701208280513</v>
+        <v>1.021348670309698</v>
       </c>
       <c r="E9">
-        <v>1.028544271276729</v>
+        <v>1.015712598950633</v>
       </c>
       <c r="F9">
-        <v>1.034449642281746</v>
+        <v>1.023474293365703</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049967789735442</v>
+        <v>1.048276419397853</v>
       </c>
       <c r="J9">
-        <v>1.041184131289325</v>
+        <v>1.026878756052188</v>
       </c>
       <c r="K9">
-        <v>1.042330106782919</v>
+        <v>1.034104622088127</v>
       </c>
       <c r="L9">
-        <v>1.041190611526455</v>
+        <v>1.028555792099785</v>
       </c>
       <c r="M9">
-        <v>1.047007474011663</v>
+        <v>1.036197660668303</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037220403267547</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035205007706165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006861056252815</v>
+        <v>0.9918581934341775</v>
       </c>
       <c r="D10">
-        <v>1.022879382140784</v>
+        <v>1.014923620411317</v>
       </c>
       <c r="E10">
-        <v>1.020616865053369</v>
+        <v>1.008127599186865</v>
       </c>
       <c r="F10">
-        <v>1.02581154003051</v>
+        <v>1.016598912069596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046676509832707</v>
+        <v>1.045699289826467</v>
       </c>
       <c r="J10">
-        <v>1.034805077934109</v>
+        <v>1.020398607623787</v>
       </c>
       <c r="K10">
-        <v>1.036847474807988</v>
+        <v>1.029028552635584</v>
       </c>
       <c r="L10">
-        <v>1.034623592631389</v>
+        <v>1.022351641706227</v>
       </c>
       <c r="M10">
-        <v>1.039729890102944</v>
+        <v>1.030674798877981</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032901183823415</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031632738721723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002686772818626</v>
+        <v>0.9891102429901553</v>
       </c>
       <c r="D11">
-        <v>1.019833431220638</v>
+        <v>1.01319326657888</v>
       </c>
       <c r="E11">
-        <v>1.01707937257803</v>
+        <v>1.006481829821325</v>
       </c>
       <c r="F11">
-        <v>1.021957407292193</v>
+        <v>1.015436783767613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045193921796206</v>
+        <v>1.045105390595268</v>
       </c>
       <c r="J11">
-        <v>1.031948204486672</v>
+        <v>1.018943172170198</v>
       </c>
       <c r="K11">
-        <v>1.034390766152269</v>
+        <v>1.027870593563656</v>
       </c>
       <c r="L11">
-        <v>1.031686227926237</v>
+        <v>1.021282534879771</v>
       </c>
       <c r="M11">
-        <v>1.036476787891978</v>
+        <v>1.030073340644217</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032864247868901</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030847020844333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001114655866102</v>
+        <v>0.9886410378637631</v>
       </c>
       <c r="D12">
-        <v>1.018687328489383</v>
+        <v>1.01296406140999</v>
       </c>
       <c r="E12">
-        <v>1.015748598926613</v>
+        <v>1.00650959738649</v>
       </c>
       <c r="F12">
-        <v>1.020507577250594</v>
+        <v>1.015698140265723</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044634115269767</v>
+        <v>1.045092173906937</v>
       </c>
       <c r="J12">
-        <v>1.030871916256732</v>
+        <v>1.018934032524626</v>
       </c>
       <c r="K12">
-        <v>1.033465057436321</v>
+        <v>1.027847034922369</v>
       </c>
       <c r="L12">
-        <v>1.030580174860876</v>
+        <v>1.021513137467353</v>
       </c>
       <c r="M12">
-        <v>1.035252155732958</v>
+        <v>1.030530644310172</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033554137888629</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030830363950634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001452881320676</v>
+        <v>0.9899247891966561</v>
       </c>
       <c r="D13">
-        <v>1.018933851458341</v>
+        <v>1.013903116307525</v>
       </c>
       <c r="E13">
-        <v>1.016034831838987</v>
+        <v>1.007856919997471</v>
       </c>
       <c r="F13">
-        <v>1.020819415196547</v>
+        <v>1.017106159302788</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044754615910257</v>
+        <v>1.045544921482437</v>
       </c>
       <c r="J13">
-        <v>1.031103483010825</v>
+        <v>1.020067550923827</v>
       </c>
       <c r="K13">
-        <v>1.033664234239328</v>
+        <v>1.028725559002829</v>
       </c>
       <c r="L13">
-        <v>1.03081812027297</v>
+        <v>1.022791592444191</v>
       </c>
       <c r="M13">
-        <v>1.035515597116355</v>
+        <v>1.031869850812153</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034890851504051</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.0314490101701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0025572702276</v>
+        <v>0.9916058719986485</v>
       </c>
       <c r="D14">
-        <v>1.019738999203178</v>
+        <v>1.01508247695069</v>
       </c>
       <c r="E14">
-        <v>1.016969719254364</v>
+        <v>1.009384858516713</v>
       </c>
       <c r="F14">
-        <v>1.021837942784299</v>
+        <v>1.018599828573552</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045147836706079</v>
+        <v>1.046069061038818</v>
       </c>
       <c r="J14">
-        <v>1.031859551995017</v>
+        <v>1.021368234290249</v>
       </c>
       <c r="K14">
-        <v>1.034314520193195</v>
+        <v>1.02974206033453</v>
       </c>
       <c r="L14">
-        <v>1.031595112356663</v>
+        <v>1.024148673747008</v>
       </c>
       <c r="M14">
-        <v>1.036375897603884</v>
+        <v>1.033195822281031</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036112858939678</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032169147577679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003234814862372</v>
+        <v>0.9924100844356579</v>
       </c>
       <c r="D15">
-        <v>1.020233101990539</v>
+        <v>1.015636052831259</v>
       </c>
       <c r="E15">
-        <v>1.017543476750202</v>
+        <v>1.010063072458828</v>
       </c>
       <c r="F15">
-        <v>1.022463039383373</v>
+        <v>1.019237677803895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045388891238129</v>
+        <v>1.046304338467365</v>
       </c>
       <c r="J15">
-        <v>1.032323359802258</v>
+        <v>1.021949034430916</v>
       </c>
       <c r="K15">
-        <v>1.034713413002189</v>
+        <v>1.030198675612961</v>
       </c>
       <c r="L15">
-        <v>1.032071829174761</v>
+        <v>1.024726789398654</v>
       </c>
       <c r="M15">
-        <v>1.036903768395776</v>
+        <v>1.033735730462011</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036577230956901</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032497885704389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007135138712084</v>
+        <v>0.9961934712876231</v>
       </c>
       <c r="D16">
-        <v>1.023079519714551</v>
+        <v>1.018175133009861</v>
       </c>
       <c r="E16">
-        <v>1.020849340823643</v>
+        <v>1.013011814055057</v>
       </c>
       <c r="F16">
-        <v>1.026064833869186</v>
+        <v>1.021904657931212</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046773654258806</v>
+        <v>1.047325481390307</v>
       </c>
       <c r="J16">
-        <v>1.034992609689353</v>
+        <v>1.024481661743378</v>
       </c>
       <c r="K16">
-        <v>1.037008713315495</v>
+        <v>1.032188067305544</v>
       </c>
       <c r="L16">
-        <v>1.034816485103257</v>
+        <v>1.027114044553266</v>
       </c>
       <c r="M16">
-        <v>1.039943559788671</v>
+        <v>1.035853817349863</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038212565308359</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033907632098003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009544734586932</v>
+        <v>0.9982191021163435</v>
       </c>
       <c r="D17">
-        <v>1.024839764518607</v>
+        <v>1.019509332798057</v>
       </c>
       <c r="E17">
-        <v>1.022894240562627</v>
+        <v>1.014479328706291</v>
       </c>
       <c r="F17">
-        <v>1.028292908158303</v>
+        <v>1.023167220711191</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047626576233937</v>
+        <v>1.047832556863553</v>
       </c>
       <c r="J17">
-        <v>1.036641000317499</v>
+        <v>1.025745890047805</v>
       </c>
       <c r="K17">
-        <v>1.038425842815381</v>
+        <v>1.033183726348803</v>
       </c>
       <c r="L17">
-        <v>1.03651241525807</v>
+        <v>1.028238158018406</v>
       </c>
       <c r="M17">
-        <v>1.0418224023639</v>
+        <v>1.036780882426121</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038816083750817</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034614190980188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010937322934806</v>
+        <v>0.9988820355796687</v>
       </c>
       <c r="D18">
-        <v>1.025857666106879</v>
+        <v>1.019894342125639</v>
       </c>
       <c r="E18">
-        <v>1.02407695166077</v>
+        <v>1.01474512223215</v>
       </c>
       <c r="F18">
-        <v>1.02958161025711</v>
+        <v>1.023257872660141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048118563184013</v>
+        <v>1.047928254672504</v>
       </c>
       <c r="J18">
-        <v>1.037593405434373</v>
+        <v>1.025987344897232</v>
       </c>
       <c r="K18">
-        <v>1.039244506042335</v>
+        <v>1.033378287449234</v>
       </c>
       <c r="L18">
-        <v>1.037492636236605</v>
+        <v>1.028314098686017</v>
       </c>
       <c r="M18">
-        <v>1.042908541992772</v>
+        <v>1.036686868269019</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038503602209908</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034740090950624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011410013454913</v>
+        <v>0.998344197943986</v>
       </c>
       <c r="D19">
-        <v>1.026203273572237</v>
+        <v>1.019454544538967</v>
       </c>
       <c r="E19">
-        <v>1.024478551916475</v>
+        <v>1.013952433160058</v>
       </c>
       <c r="F19">
-        <v>1.030019209279026</v>
+        <v>1.022301594049133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048285397603216</v>
+        <v>1.047671546799239</v>
       </c>
       <c r="J19">
-        <v>1.037916637795819</v>
+        <v>1.025334911753653</v>
       </c>
       <c r="K19">
-        <v>1.039522326786869</v>
+        <v>1.032882919710904</v>
       </c>
       <c r="L19">
-        <v>1.037825367881687</v>
+        <v>1.027471322620187</v>
       </c>
       <c r="M19">
-        <v>1.043277260970011</v>
+        <v>1.03568362412943</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037383938744987</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034396260116504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00928755041962</v>
+        <v>0.9944069017895634</v>
       </c>
       <c r="D20">
-        <v>1.024651825203414</v>
+        <v>1.016663337365083</v>
       </c>
       <c r="E20">
-        <v>1.022675888308373</v>
+        <v>1.010175466800839</v>
       </c>
       <c r="F20">
-        <v>1.028054991820188</v>
+        <v>1.01844523944738</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047535638816985</v>
+        <v>1.046410248936042</v>
       </c>
       <c r="J20">
-        <v>1.03646508828429</v>
+        <v>1.022155143673526</v>
       </c>
       <c r="K20">
-        <v>1.038274623138213</v>
+        <v>1.030419376488639</v>
       </c>
       <c r="L20">
-        <v>1.036331393713513</v>
+        <v>1.02404172193716</v>
       </c>
       <c r="M20">
-        <v>1.041621836425878</v>
+        <v>1.032171324472297</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034074914232546</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032658384891884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002232663237359</v>
+        <v>0.9869052373255641</v>
       </c>
       <c r="D21">
-        <v>1.019502316442687</v>
+        <v>1.011579894851905</v>
       </c>
       <c r="E21">
-        <v>1.016694890498596</v>
+        <v>1.004108153118396</v>
       </c>
       <c r="F21">
-        <v>1.021538524775308</v>
+        <v>1.012890963249039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045032298428568</v>
+        <v>1.044319632612673</v>
       </c>
       <c r="J21">
-        <v>1.031637333398969</v>
+        <v>1.016960834143624</v>
       </c>
       <c r="K21">
-        <v>1.034123397339795</v>
+        <v>1.026345154174832</v>
       </c>
       <c r="L21">
-        <v>1.031366728766101</v>
+        <v>1.019012111033951</v>
       </c>
       <c r="M21">
-        <v>1.036123018411214</v>
+        <v>1.027632159909702</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030441320156265</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029781007075154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976712170569972</v>
+        <v>0.9821101225272997</v>
       </c>
       <c r="D22">
-        <v>1.016179073975134</v>
+        <v>1.008334678004408</v>
       </c>
       <c r="E22">
-        <v>1.012836670355203</v>
+        <v>1.000264822913838</v>
       </c>
       <c r="F22">
-        <v>1.017335231788522</v>
+        <v>1.009404302975908</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04340538961374</v>
+        <v>1.042972223530994</v>
       </c>
       <c r="J22">
-        <v>1.028513964022129</v>
+        <v>1.013656109179208</v>
       </c>
       <c r="K22">
-        <v>1.031436692408109</v>
+        <v>1.023742811961259</v>
       </c>
       <c r="L22">
-        <v>1.028158048527376</v>
+        <v>1.015831035435471</v>
       </c>
       <c r="M22">
-        <v>1.032570922820661</v>
+        <v>1.024791732854515</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028193276984262</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027927426280071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000101739678794</v>
+        <v>0.9846420625589355</v>
       </c>
       <c r="D23">
-        <v>1.017949206634988</v>
+        <v>1.01004059374796</v>
       </c>
       <c r="E23">
-        <v>1.014891618939852</v>
+        <v>1.002286872808769</v>
       </c>
       <c r="F23">
-        <v>1.019573943727411</v>
+        <v>1.01124209287924</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04427303506441</v>
+        <v>1.043679984772346</v>
       </c>
       <c r="J23">
-        <v>1.03017837755644</v>
+        <v>1.015394840332934</v>
       </c>
       <c r="K23">
-        <v>1.032868501605963</v>
+        <v>1.025107468213127</v>
       </c>
       <c r="L23">
-        <v>1.029867614540805</v>
+        <v>1.017501397443357</v>
       </c>
       <c r="M23">
-        <v>1.034463289460663</v>
+        <v>1.02628635242389</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029376187806735</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028882596871306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009403800601059</v>
+        <v>0.9943506114293875</v>
       </c>
       <c r="D24">
-        <v>1.024736774080961</v>
+        <v>1.016603670396786</v>
       </c>
       <c r="E24">
-        <v>1.022774583257131</v>
+        <v>1.010070919302333</v>
       </c>
       <c r="F24">
-        <v>1.028162529560374</v>
+        <v>1.018322820536562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047576746507544</v>
+        <v>1.046371827486404</v>
       </c>
       <c r="J24">
-        <v>1.036544603333553</v>
+        <v>1.022067877758566</v>
       </c>
       <c r="K24">
-        <v>1.038342977234533</v>
+        <v>1.030345348747991</v>
       </c>
       <c r="L24">
-        <v>1.036413217262517</v>
+        <v>1.023923456771921</v>
       </c>
       <c r="M24">
-        <v>1.041712493621286</v>
+        <v>1.032035630076154</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033926412384441</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032578519545311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019696678523079</v>
+        <v>1.0050529466792</v>
       </c>
       <c r="D25">
-        <v>1.032269903466808</v>
+        <v>1.023854133795538</v>
       </c>
       <c r="E25">
-        <v>1.031531279326463</v>
+        <v>1.018687990206309</v>
       </c>
       <c r="F25">
-        <v>1.037704951087411</v>
+        <v>1.026186237838178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051195819898572</v>
+        <v>1.049274168427211</v>
       </c>
       <c r="J25">
-        <v>1.043578879051172</v>
+        <v>1.029411447460427</v>
       </c>
       <c r="K25">
-        <v>1.044387104097126</v>
+        <v>1.03609309616771</v>
       </c>
       <c r="L25">
-        <v>1.043659065869395</v>
+        <v>1.031002964071938</v>
       </c>
       <c r="M25">
-        <v>1.049744842790382</v>
+        <v>1.038391205013135</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038956452378607</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036639612884001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013124378401622</v>
+        <v>1.011804854539969</v>
       </c>
       <c r="D2">
-        <v>1.029309845461657</v>
+        <v>1.027718926206944</v>
       </c>
       <c r="E2">
-        <v>1.025197348803794</v>
+        <v>1.024371742782808</v>
       </c>
       <c r="F2">
-        <v>1.032155548613419</v>
+        <v>1.031435829745516</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051393176224904</v>
+        <v>1.050585363528222</v>
       </c>
       <c r="J2">
-        <v>1.034919504434081</v>
+        <v>1.033638127469745</v>
       </c>
       <c r="K2">
-        <v>1.040375408226355</v>
+        <v>1.038805140669272</v>
       </c>
       <c r="L2">
-        <v>1.036316460329399</v>
+        <v>1.035501669455378</v>
       </c>
       <c r="M2">
-        <v>1.043184369932117</v>
+        <v>1.042473919541926</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042749919193533</v>
+        <v>1.042187646874275</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039619190474689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038517642031601</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022063759510359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018811576250976</v>
+        <v>1.017127220005118</v>
       </c>
       <c r="D3">
-        <v>1.033168182847003</v>
+        <v>1.031175058113214</v>
       </c>
       <c r="E3">
-        <v>1.029805872049066</v>
+        <v>1.02864904344075</v>
       </c>
       <c r="F3">
-        <v>1.036386187634742</v>
+        <v>1.03540821195891</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052861767200196</v>
+        <v>1.051848647004439</v>
       </c>
       <c r="J3">
-        <v>1.038802232092843</v>
+        <v>1.037161624718806</v>
       </c>
       <c r="K3">
-        <v>1.043393555988065</v>
+        <v>1.041424001390782</v>
       </c>
       <c r="L3">
-        <v>1.040071072458458</v>
+        <v>1.038928021357883</v>
       </c>
       <c r="M3">
-        <v>1.046573742320245</v>
+        <v>1.045607229182831</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045432366914408</v>
+        <v>1.044667441357585</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041750621729473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040366459058056</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022687282007833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022401934638381</v>
+        <v>1.020491480095011</v>
       </c>
       <c r="D4">
-        <v>1.035605009740105</v>
+        <v>1.033360883612626</v>
       </c>
       <c r="E4">
-        <v>1.03272111479527</v>
+        <v>1.031359207133558</v>
       </c>
       <c r="F4">
-        <v>1.039067029329787</v>
+        <v>1.037929202153458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053773383487387</v>
+        <v>1.052631881106771</v>
       </c>
       <c r="J4">
-        <v>1.041249451720953</v>
+        <v>1.039385149600911</v>
       </c>
       <c r="K4">
-        <v>1.045291896534964</v>
+        <v>1.043072678346485</v>
       </c>
       <c r="L4">
-        <v>1.04244003483001</v>
+        <v>1.041093331383468</v>
       </c>
       <c r="M4">
-        <v>1.048715749820053</v>
+        <v>1.04759043186527</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047127608781991</v>
+        <v>1.046237002624568</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043093799148177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04153318344667</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023077182034001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023897597893885</v>
+        <v>1.021893263532931</v>
       </c>
       <c r="D5">
-        <v>1.036622675714917</v>
+        <v>1.034274240362267</v>
       </c>
       <c r="E5">
-        <v>1.033938341388504</v>
+        <v>1.032490976992387</v>
       </c>
       <c r="F5">
-        <v>1.040186350536023</v>
+        <v>1.038981989121559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054151185987969</v>
+        <v>1.052956272665201</v>
       </c>
       <c r="J5">
-        <v>1.042269919407374</v>
+        <v>1.040312512755762</v>
       </c>
       <c r="K5">
-        <v>1.046084273105153</v>
+        <v>1.043761197019699</v>
       </c>
       <c r="L5">
-        <v>1.043428936756467</v>
+        <v>1.041997284527699</v>
       </c>
       <c r="M5">
-        <v>1.049609733932247</v>
+        <v>1.04841825120072</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047835130500391</v>
+        <v>1.046892160672977</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043661208703652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042027872771263</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023240660364119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024155851569044</v>
+        <v>1.022134582516387</v>
       </c>
       <c r="D6">
-        <v>1.036801277103024</v>
+        <v>1.034434369773368</v>
       </c>
       <c r="E6">
-        <v>1.03415036469932</v>
+        <v>1.032687144939713</v>
       </c>
       <c r="F6">
-        <v>1.040380002027317</v>
+        <v>1.039163378475259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054218437327539</v>
+        <v>1.053014065144464</v>
       </c>
       <c r="J6">
-        <v>1.042448509657355</v>
+        <v>1.04047431333056</v>
       </c>
       <c r="K6">
-        <v>1.046225022776551</v>
+        <v>1.043883554812051</v>
       </c>
       <c r="L6">
-        <v>1.043602611797933</v>
+        <v>1.042155200780529</v>
       </c>
       <c r="M6">
-        <v>1.049765552876475</v>
+        <v>1.048561877902767</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047958449498753</v>
+        <v>1.047005830572577</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043769430331409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042123965619849</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023271239138345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022444508095814</v>
+        <v>1.020529189287387</v>
       </c>
       <c r="D7">
-        <v>1.035641692094627</v>
+        <v>1.033393183976993</v>
       </c>
       <c r="E7">
-        <v>1.032760619374667</v>
+        <v>1.031393055040537</v>
       </c>
       <c r="F7">
-        <v>1.039099585711919</v>
+        <v>1.037957580980572</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053790182050137</v>
+        <v>1.052646445542265</v>
       </c>
       <c r="J7">
-        <v>1.04128511201108</v>
+        <v>1.039416041416509</v>
       </c>
       <c r="K7">
-        <v>1.045325309205248</v>
+        <v>1.043101747306009</v>
       </c>
       <c r="L7">
-        <v>1.042476224819626</v>
+        <v>1.04112392142862</v>
       </c>
       <c r="M7">
-        <v>1.048745097815794</v>
+        <v>1.047615643152361</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047150835541514</v>
+        <v>1.046256955510498</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043137445790941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041575773358088</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023088345363485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015094408753814</v>
+        <v>1.013644447839179</v>
       </c>
       <c r="D8">
-        <v>1.030655731136177</v>
+        <v>1.028922803233918</v>
       </c>
       <c r="E8">
-        <v>1.026799081550145</v>
+        <v>1.025853327891083</v>
       </c>
       <c r="F8">
-        <v>1.033620084555986</v>
+        <v>1.03280698822219</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051912504986712</v>
+        <v>1.051032267940104</v>
       </c>
       <c r="J8">
-        <v>1.036273634533472</v>
+        <v>1.034864123703599</v>
       </c>
       <c r="K8">
-        <v>1.041435864721764</v>
+        <v>1.039724746148782</v>
       </c>
       <c r="L8">
-        <v>1.037627877351306</v>
+        <v>1.0366941267258</v>
       </c>
       <c r="M8">
-        <v>1.044363122300136</v>
+        <v>1.043560174616768</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043682819161544</v>
+        <v>1.043047342418994</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040391879651372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03919301740845</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02228878666019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001374439607326</v>
+        <v>1.000834965117081</v>
       </c>
       <c r="D9">
-        <v>1.021348670309698</v>
+        <v>1.0206064245733</v>
       </c>
       <c r="E9">
-        <v>1.015712598950633</v>
+        <v>1.015595158604639</v>
       </c>
       <c r="F9">
-        <v>1.023474293365703</v>
+        <v>1.023307281095399</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048276419397853</v>
+        <v>1.047900317153517</v>
       </c>
       <c r="J9">
-        <v>1.026878756052188</v>
+        <v>1.026358273028114</v>
       </c>
       <c r="K9">
-        <v>1.034104622088127</v>
+        <v>1.033373795328453</v>
       </c>
       <c r="L9">
-        <v>1.028555792099785</v>
+        <v>1.028440182790816</v>
       </c>
       <c r="M9">
-        <v>1.036197660668303</v>
+        <v>1.03603320234151</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037220403267547</v>
+        <v>1.037090244920836</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035205007706165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034699025660456</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020756891220401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918581934341775</v>
+        <v>0.9919649996251523</v>
       </c>
       <c r="D10">
-        <v>1.014923620411317</v>
+        <v>1.014876234166396</v>
       </c>
       <c r="E10">
-        <v>1.008127599186865</v>
+        <v>1.008589596913838</v>
       </c>
       <c r="F10">
-        <v>1.016598912069596</v>
+        <v>1.016886095536937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045699289826467</v>
+        <v>1.045675317324907</v>
       </c>
       <c r="J10">
-        <v>1.020398607623787</v>
+        <v>1.020501077527752</v>
       </c>
       <c r="K10">
-        <v>1.029028552635584</v>
+        <v>1.028981989756056</v>
       </c>
       <c r="L10">
-        <v>1.022351641706227</v>
+        <v>1.02280547629993</v>
       </c>
       <c r="M10">
-        <v>1.030674798877981</v>
+        <v>1.030957015724293</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032901183823415</v>
+        <v>1.033124527776669</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031632738721723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03161228869876</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019701451504883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9891102429901553</v>
+        <v>0.9892837190449214</v>
       </c>
       <c r="D11">
-        <v>1.01319326657888</v>
+        <v>1.013251727806602</v>
       </c>
       <c r="E11">
-        <v>1.006481829821325</v>
+        <v>1.006939880171802</v>
       </c>
       <c r="F11">
-        <v>1.015436783767613</v>
+        <v>1.015733800064756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045105390595268</v>
+        <v>1.045134946759643</v>
       </c>
       <c r="J11">
-        <v>1.018943172170198</v>
+        <v>1.019109204600759</v>
       </c>
       <c r="K11">
-        <v>1.027870593563656</v>
+        <v>1.027927989428513</v>
       </c>
       <c r="L11">
-        <v>1.021282534879771</v>
+        <v>1.021732096587645</v>
       </c>
       <c r="M11">
-        <v>1.030073340644217</v>
+        <v>1.030364976997057</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032864247868901</v>
+        <v>1.033094928821915</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030847020844333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030903303852367</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019580265428275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9886410378637631</v>
+        <v>0.9887568291198694</v>
       </c>
       <c r="D12">
-        <v>1.01296406140999</v>
+        <v>1.01298631033414</v>
       </c>
       <c r="E12">
-        <v>1.00650959738649</v>
+        <v>1.006867888440983</v>
       </c>
       <c r="F12">
-        <v>1.015698140265723</v>
+        <v>1.015926831406461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045092173906937</v>
+        <v>1.045103419773636</v>
       </c>
       <c r="J12">
-        <v>1.018934032524626</v>
+        <v>1.019044761732052</v>
       </c>
       <c r="K12">
-        <v>1.027847034922369</v>
+        <v>1.027868871711018</v>
       </c>
       <c r="L12">
-        <v>1.021513137467353</v>
+        <v>1.021864682869063</v>
       </c>
       <c r="M12">
-        <v>1.030530644310172</v>
+        <v>1.030755129987218</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033554137888629</v>
+        <v>1.033731642676001</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030830363950634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03086150616944</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019663034336158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9899247891966561</v>
+        <v>0.9898788669472398</v>
       </c>
       <c r="D13">
-        <v>1.013903116307525</v>
+        <v>1.013773580628924</v>
       </c>
       <c r="E13">
-        <v>1.007856919997471</v>
+        <v>1.008030378648231</v>
       </c>
       <c r="F13">
-        <v>1.017106159302788</v>
+        <v>1.017198403310942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045544921482437</v>
+        <v>1.045479441332426</v>
       </c>
       <c r="J13">
-        <v>1.020067550923827</v>
+        <v>1.020023621955938</v>
       </c>
       <c r="K13">
-        <v>1.028725559002829</v>
+        <v>1.028598409484857</v>
       </c>
       <c r="L13">
-        <v>1.022791592444191</v>
+        <v>1.022961806862854</v>
       </c>
       <c r="M13">
-        <v>1.031869850812153</v>
+        <v>1.031960409988087</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034890851504051</v>
+        <v>1.03496244012639</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.0314490101701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031374559053418</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019921426798721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9916058719986485</v>
+        <v>0.9914029642035473</v>
       </c>
       <c r="D14">
-        <v>1.01508247695069</v>
+        <v>1.014797058586243</v>
       </c>
       <c r="E14">
-        <v>1.009384858516713</v>
+        <v>1.009394022555078</v>
       </c>
       <c r="F14">
-        <v>1.018599828573552</v>
+        <v>1.018568454236691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046069061038818</v>
+        <v>1.045924754015843</v>
       </c>
       <c r="J14">
-        <v>1.021368234290249</v>
+        <v>1.021173987717481</v>
       </c>
       <c r="K14">
-        <v>1.02974206033453</v>
+        <v>1.029461827163782</v>
       </c>
       <c r="L14">
-        <v>1.024148673747008</v>
+        <v>1.024157668907909</v>
       </c>
       <c r="M14">
-        <v>1.033195822281031</v>
+        <v>1.03316501263328</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036112858939678</v>
+        <v>1.036088506662204</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032169147577679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031986586846583</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020180205749417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9924100844356579</v>
+        <v>0.992144176409385</v>
       </c>
       <c r="D15">
-        <v>1.015636052831259</v>
+        <v>1.015285528308525</v>
       </c>
       <c r="E15">
-        <v>1.010063072458828</v>
+        <v>1.010011119436077</v>
       </c>
       <c r="F15">
-        <v>1.019237677803895</v>
+        <v>1.019159478800192</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046304338467365</v>
+        <v>1.046127093684809</v>
       </c>
       <c r="J15">
-        <v>1.021949034430916</v>
+        <v>1.021694366841958</v>
       </c>
       <c r="K15">
-        <v>1.030198675612961</v>
+        <v>1.029854467109567</v>
       </c>
       <c r="L15">
-        <v>1.024726789398654</v>
+        <v>1.02467578563942</v>
       </c>
       <c r="M15">
-        <v>1.033735730462011</v>
+        <v>1.033658927121249</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036577230956901</v>
+        <v>1.036516526356672</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032497885704389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032270659846967</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020286182044435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9961934712876231</v>
+        <v>0.9956884879543454</v>
       </c>
       <c r="D16">
-        <v>1.018175133009861</v>
+        <v>1.017562105371031</v>
       </c>
       <c r="E16">
-        <v>1.013011814055057</v>
+        <v>1.012756635413584</v>
       </c>
       <c r="F16">
-        <v>1.021904657931212</v>
+        <v>1.0216653119038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047325481390307</v>
+        <v>1.047015302649155</v>
       </c>
       <c r="J16">
-        <v>1.024481661743378</v>
+        <v>1.023996881147011</v>
       </c>
       <c r="K16">
-        <v>1.032188067305544</v>
+        <v>1.031585580279597</v>
       </c>
       <c r="L16">
-        <v>1.027114044553266</v>
+        <v>1.026863309628925</v>
       </c>
       <c r="M16">
-        <v>1.035853817349863</v>
+        <v>1.035618546083773</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038212565308359</v>
+        <v>1.038026603723504</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033907632098003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033498080370827</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020689961501074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9982191021163435</v>
+        <v>0.9976113259139643</v>
       </c>
       <c r="D17">
-        <v>1.019509332798057</v>
+        <v>1.018775297460013</v>
       </c>
       <c r="E17">
-        <v>1.014479328706291</v>
+        <v>1.014151879698917</v>
       </c>
       <c r="F17">
-        <v>1.023167220711191</v>
+        <v>1.022867230730057</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047832556863553</v>
+        <v>1.047461005218172</v>
       </c>
       <c r="J17">
-        <v>1.025745890047805</v>
+        <v>1.025161607833565</v>
       </c>
       <c r="K17">
-        <v>1.033183726348803</v>
+        <v>1.032461945883111</v>
       </c>
       <c r="L17">
-        <v>1.028238158018406</v>
+        <v>1.027916243174411</v>
       </c>
       <c r="M17">
-        <v>1.036780882426121</v>
+        <v>1.036485852127796</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038816083750817</v>
+        <v>1.038582864424903</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034614190980188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034120536605989</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020864278352422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9988820355796687</v>
+        <v>0.9982865966940699</v>
       </c>
       <c r="D18">
-        <v>1.019894342125639</v>
+        <v>1.019156675529906</v>
       </c>
       <c r="E18">
-        <v>1.01474512223215</v>
+        <v>1.014461145608641</v>
       </c>
       <c r="F18">
-        <v>1.023257872660141</v>
+        <v>1.022985061943283</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047928254672504</v>
+        <v>1.047554784625774</v>
       </c>
       <c r="J18">
-        <v>1.025987344897232</v>
+        <v>1.025414490984361</v>
       </c>
       <c r="K18">
-        <v>1.033378287449234</v>
+        <v>1.032652734420744</v>
       </c>
       <c r="L18">
-        <v>1.028314098686017</v>
+        <v>1.028034843827426</v>
       </c>
       <c r="M18">
-        <v>1.036686868269019</v>
+        <v>1.036418497138506</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038503602209908</v>
+        <v>1.038291412373842</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034740090950624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034242627927085</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020842566161459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.998344197943986</v>
+        <v>0.9978613981062853</v>
       </c>
       <c r="D19">
-        <v>1.019454544538967</v>
+        <v>1.01881652031038</v>
       </c>
       <c r="E19">
-        <v>1.013952433160058</v>
+        <v>1.013810831098811</v>
       </c>
       <c r="F19">
-        <v>1.022301594049133</v>
+        <v>1.022131421280573</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047671546799239</v>
+        <v>1.047348507177812</v>
       </c>
       <c r="J19">
-        <v>1.025334911753653</v>
+        <v>1.024870342113188</v>
       </c>
       <c r="K19">
-        <v>1.032882919710904</v>
+        <v>1.032255327092826</v>
       </c>
       <c r="L19">
-        <v>1.027471322620187</v>
+        <v>1.027332066723723</v>
       </c>
       <c r="M19">
-        <v>1.03568362412943</v>
+        <v>1.035516212165373</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037383938744987</v>
+        <v>1.037251529628596</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034396260116504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033968689696917</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020657701236353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9944069017895634</v>
+        <v>0.9943290327736144</v>
       </c>
       <c r="D20">
-        <v>1.016663337365083</v>
+        <v>1.016422047343818</v>
       </c>
       <c r="E20">
-        <v>1.010175466800839</v>
+        <v>1.010467369129604</v>
       </c>
       <c r="F20">
-        <v>1.01844523944738</v>
+        <v>1.018599934374821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046410248936042</v>
+        <v>1.046288130995898</v>
       </c>
       <c r="J20">
-        <v>1.022155143673526</v>
+        <v>1.022080324671899</v>
       </c>
       <c r="K20">
-        <v>1.030419376488639</v>
+        <v>1.030182153010688</v>
       </c>
       <c r="L20">
-        <v>1.02404172193716</v>
+        <v>1.024328626137349</v>
       </c>
       <c r="M20">
-        <v>1.032171324472297</v>
+        <v>1.032323425323056</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034074914232546</v>
+        <v>1.034195286898937</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032658384891884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032507228638938</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020003829850928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9869052373255641</v>
+        <v>0.9873735875030496</v>
       </c>
       <c r="D21">
-        <v>1.011579894851905</v>
+        <v>1.011913305228881</v>
       </c>
       <c r="E21">
-        <v>1.004108153118396</v>
+        <v>1.004901094609306</v>
       </c>
       <c r="F21">
-        <v>1.012890963249039</v>
+        <v>1.01343631180796</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044319632612673</v>
+        <v>1.044488173038315</v>
       </c>
       <c r="J21">
-        <v>1.016960834143624</v>
+        <v>1.017408866624044</v>
       </c>
       <c r="K21">
-        <v>1.026345154174832</v>
+        <v>1.026672437611134</v>
       </c>
       <c r="L21">
-        <v>1.019012111033951</v>
+        <v>1.019790205380588</v>
       </c>
       <c r="M21">
-        <v>1.027632159909702</v>
+        <v>1.028167523299619</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030441320156265</v>
+        <v>1.030865030278131</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029781007075154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030029340272443</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.0191288029978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9821101225272997</v>
+        <v>0.9829333874761145</v>
       </c>
       <c r="D22">
-        <v>1.008334678004408</v>
+        <v>1.009038104427326</v>
       </c>
       <c r="E22">
-        <v>1.000264822913838</v>
+        <v>1.001380963526187</v>
       </c>
       <c r="F22">
-        <v>1.009404302975908</v>
+        <v>1.010202278884747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042972223530994</v>
+        <v>1.043327544021318</v>
       </c>
       <c r="J22">
-        <v>1.013656109179208</v>
+        <v>1.014441367172343</v>
       </c>
       <c r="K22">
-        <v>1.023742811961259</v>
+        <v>1.024432616112638</v>
       </c>
       <c r="L22">
-        <v>1.015831035435471</v>
+        <v>1.016925112809806</v>
       </c>
       <c r="M22">
-        <v>1.024791732854515</v>
+        <v>1.025574300236403</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028193276984262</v>
+        <v>1.028812637135892</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027927426280071</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028430799054706</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018570176787034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9846420625589355</v>
+        <v>0.9852804414707772</v>
       </c>
       <c r="D23">
-        <v>1.01004059374796</v>
+        <v>1.010550401247002</v>
       </c>
       <c r="E23">
-        <v>1.002286872808769</v>
+        <v>1.003236375395044</v>
       </c>
       <c r="F23">
-        <v>1.01124209287924</v>
+        <v>1.011909475808168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043679984772346</v>
+        <v>1.043937604351863</v>
       </c>
       <c r="J23">
-        <v>1.015394840332934</v>
+        <v>1.016004697436823</v>
       </c>
       <c r="K23">
-        <v>1.025107468213127</v>
+        <v>1.025607671406582</v>
       </c>
       <c r="L23">
-        <v>1.017501397443357</v>
+        <v>1.018432658589329</v>
       </c>
       <c r="M23">
-        <v>1.02628635242389</v>
+        <v>1.026941203996769</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029376187806735</v>
+        <v>1.029894466889623</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028882596871306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029250957592346</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018859009753997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9943506114293875</v>
+        <v>0.9942926521999561</v>
       </c>
       <c r="D24">
-        <v>1.016603670396786</v>
+        <v>1.016378664446872</v>
       </c>
       <c r="E24">
-        <v>1.010070919302333</v>
+        <v>1.010388736429376</v>
       </c>
       <c r="F24">
-        <v>1.018322820536562</v>
+        <v>1.018496208483563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046371827486404</v>
+        <v>1.046257949332057</v>
       </c>
       <c r="J24">
-        <v>1.022067877758566</v>
+        <v>1.022012185811731</v>
       </c>
       <c r="K24">
-        <v>1.030345348747991</v>
+        <v>1.030124130529476</v>
       </c>
       <c r="L24">
-        <v>1.023923456771921</v>
+        <v>1.024235837763875</v>
       </c>
       <c r="M24">
-        <v>1.032035630076154</v>
+        <v>1.03220611338117</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033926412384441</v>
+        <v>1.034061339722264</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032578519545311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032436001545681</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019970718267698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0050529466792</v>
+        <v>1.004259747808893</v>
       </c>
       <c r="D25">
-        <v>1.023854133795538</v>
+        <v>1.022839872566587</v>
       </c>
       <c r="E25">
-        <v>1.018687990206309</v>
+        <v>1.018337372444208</v>
       </c>
       <c r="F25">
-        <v>1.026186237838178</v>
+        <v>1.02583769119595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049274168427211</v>
+        <v>1.048759910335548</v>
       </c>
       <c r="J25">
-        <v>1.029411447460427</v>
+        <v>1.028644599967562</v>
       </c>
       <c r="K25">
-        <v>1.03609309616771</v>
+        <v>1.035093681270725</v>
       </c>
       <c r="L25">
-        <v>1.031002964071938</v>
+        <v>1.030657540603883</v>
       </c>
       <c r="M25">
-        <v>1.038391205013135</v>
+        <v>1.038047726693376</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038956452378607</v>
+        <v>1.038684611682734</v>
       </c>
       <c r="Q25">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R25">
-        <v>1.036639612884001</v>
+        <v>1.035946528287417</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021181427556621</v>
       </c>
     </row>
   </sheetData>
